--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E66F9E5-D1A7-41C3-AA98-D70BAE2A3E42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE641FD9-B216-48E8-A056-740FAC317525}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="task" sheetId="1" r:id="rId1"/>
+    <sheet name="tasklist" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>case_name</t>
   </si>
@@ -120,6 +120,46 @@
   </si>
   <si>
     <t>name=xiaoming&amp;pwd=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务列表显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;status=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务筛选_标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务筛选_角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务筛选_进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务筛选_时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;title=测试&amp;status=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;role=1&amp;user_id=130751354&amp;status=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;progress=4&amp;status=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;date_way=1&amp;start_date=2019-09-01&amp;end_date=2019-10-20&amp;status=6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -540,6 +580,76 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>

--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE641FD9-B216-48E8-A056-740FAC317525}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC99E2A3-B32A-4FFB-8B82-4D7C6F1C160C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasklist" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="tasknode" sheetId="3" r:id="rId2"/>
+    <sheet name="login" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>case_name</t>
   </si>
@@ -160,6 +161,37 @@
   </si>
   <si>
     <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;date_way=1&amp;start_date=2019-09-01&amp;end_date=2019-10-20&amp;status=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_保存任务",
+	"start_date":"2019-09-10",
+	"end_date":"2019-10-20",
+	"type":"1",
+	"content":"家里事任务流程_保存任务",
+	"creator":"130751354",
+	"auditor":"1342",
+	"executor":"15510548580801665",
+	"acceptor":"054155683935495559",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务直接审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,8 +235,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -661,6 +696,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A6138-0A61-47C1-A7E8-238944BB7D5F}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="228" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3EF3FA-0A23-486E-B7C7-18DBDED11BB6}">
   <dimension ref="A1:D4"/>
   <sheetViews>

--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC99E2A3-B32A-4FFB-8B82-4D7C6F1C160C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F15DFF-04C6-4663-BF10-0F12401FBBE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasklist" sheetId="1" r:id="rId1"/>
     <sheet name="tasknode" sheetId="3" r:id="rId2"/>
-    <sheet name="login" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="deletetask" sheetId="4" r:id="rId3"/>
+    <sheet name="login" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>case_name</t>
   </si>
@@ -191,7 +192,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建任务直接审核</t>
+    <t>删除保存的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"user_id":"130751354"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_保存任务';</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,10 +714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A6138-0A61-47C1-A7E8-238944BB7D5F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -709,6 +726,7 @@
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="35.75" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -737,11 +755,6 @@
       </c>
       <c r="D2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -752,6 +765,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9E7A1F-7893-4CEF-BCBF-13402B2B9748}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="54.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3EF3FA-0A23-486E-B7C7-18DBDED11BB6}">
   <dimension ref="A1:D4"/>
   <sheetViews>

--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F15DFF-04C6-4663-BF10-0F12401FBBE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E28542-0C59-4685-856A-1E71FC003A92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasklist" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
   <si>
     <t>case_name</t>
   </si>
@@ -211,12 +211,214 @@
     <t>select uuid from task where title = '家里事任务流程_保存任务';</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joybos.2112</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'list'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'end_date'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'list'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'end_date'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +432,27 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6897BB"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -252,10 +475,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,23 +784,42 @@
     <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="110.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="39.75" customWidth="1"/>
+    <col min="9" max="9" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -578,8 +832,23 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -592,8 +861,23 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -606,8 +890,23 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -620,8 +919,23 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="3">
+        <v>200</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -634,8 +948,23 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="3">
+        <v>200</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -648,8 +977,23 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="3">
+        <v>200</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -662,8 +1006,23 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -676,8 +1035,23 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -690,8 +1064,23 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -704,6 +1093,28 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
+      <c r="E11" s="3">
+        <v>200</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -716,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A6138-0A61-47C1-A7E8-238944BB7D5F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -726,7 +1137,7 @@
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="35.75" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -768,7 +1179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9E7A1F-7893-4CEF-BCBF-13402B2B9748}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E28542-0C59-4685-856A-1E71FC003A92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1930C1-5EAC-4D72-9BFB-A22600C0FE50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasklist" sheetId="1" r:id="rId1"/>
-    <sheet name="tasknode" sheetId="3" r:id="rId2"/>
-    <sheet name="deletetask" sheetId="4" r:id="rId3"/>
-    <sheet name="login" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="addtask" sheetId="3" r:id="rId2"/>
+    <sheet name="tasknode" sheetId="5" r:id="rId3"/>
+    <sheet name="deletetask" sheetId="4" r:id="rId4"/>
+    <sheet name="login" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="97">
   <si>
     <t>case_name</t>
   </si>
@@ -413,12 +414,275 @@
     <t>success</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_保存任务</t>
+  </si>
+  <si>
+    <t>新建任务流程到已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_流程到已取消",
+	"start_date":"2019-09-10",
+	"end_date":"2019-10-24",
+	"type":"1",
+	"content":"家里事任务流程_流程到已取消",
+	"creator":"130751354",
+	"auditor":"1342",
+	"executor":"15510548580801665",
+	"acceptor":"054155683935495559",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_流程到已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务流程到已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_流程到已完成",
+	"start_date":"2019-09-10",
+	"end_date":"2019-10-24",
+	"type":"1",
+	"content":"家里事任务流程_流程到已完成",
+	"creator":"130751354",
+	"auditor":"1342",
+	"executor":"15510548580801665",
+	"acceptor":"054155683935495559",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_流程到已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除已取消的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除已完成的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_流程到已取消';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_流程到已完成';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人驳回审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"1342",
+	"operation_type":"0",
+	"commit":"驳回"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务流程到审核被驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_审核被驳回",
+	"start_date":"2019-09-10",
+	"end_date":"2019-10-24",
+	"type":"1",
+	"content":"家里事任务流程_审核被驳回",
+	"creator":"130751354",
+	"auditor":"1342",
+	"executor":"15510548580801665",
+	"acceptor":"054155683935495559",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_审核被驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除审核被驳回的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_审核被驳回';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"1342",
+	"operation_type":"1",
+	"commit":"同意"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"15510548580801665",
+	"operation_type":"0",
+	"commit":"申请取消",
+	"result":"这个项目进行不下去"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消任务-审核人同意取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"1342",
+	"operation_type":"2",
+	"commit":"同意取消"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务-审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_审核人驳回取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"1342",
+	"operation_type":"1",
+	"commit":"驳回取消",
+	"result":"这个项目还可以执行",
+	"cancel":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_执行人发起验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"15510548580801665",
+	"operation_type":"1",
+	"commit":"已完成待验收",
+	"result":"所有工作都已经做完"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_验收人驳回验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"054155683935495559",
+	"operation_type":"0",
+	"commit":"达不到验收标准"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_验收人通过验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"054155683935495559",
+	"operation_type":"1",
+	"commit":"所有工作已完成，验收通过"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驳回取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成待验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达不到验收标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有工作已完成，验收通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +718,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0451A5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0451A5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -475,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -491,6 +768,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,7 +1061,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -832,7 +1118,7 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>200</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -861,7 +1147,7 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>200</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -890,7 +1176,7 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>200</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -919,7 +1205,7 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -948,7 +1234,7 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>200</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -977,7 +1263,7 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1006,7 +1292,7 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1035,7 +1321,7 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>200</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1064,7 +1350,7 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>200</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -1093,7 +1379,7 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>200</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -1125,22 +1411,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A6138-0A61-47C1-A7E8-238944BB7D5F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="35.75" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1153,8 +1441,20 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="228" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="228" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1167,6 +1467,103 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
+      <c r="E2" s="6">
+        <v>200</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6">
+        <v>200</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6">
+        <v>200</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6">
+        <v>200</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1176,11 +1573,385 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7693FB1-C9BA-4480-888D-56CE715BB47D}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="20" style="2" customWidth="1"/>
+    <col min="9" max="9" width="57.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6">
+        <v>200</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6">
+        <v>200</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6">
+        <v>200</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6">
+        <v>200</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6">
+        <v>200</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6">
+        <v>200</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6">
+        <v>200</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6">
+        <v>200</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6">
+        <v>200</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6">
+        <v>200</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6">
+        <v>200</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9E7A1F-7893-4CEF-BCBF-13402B2B9748}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1189,7 +1960,7 @@
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="54.125" customWidth="1"/>
+    <col min="5" max="5" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1224,6 +1995,57 @@
       </c>
       <c r="E2" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +2055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3EF3FA-0A23-486E-B7C7-18DBDED11BB6}">
   <dimension ref="A1:D4"/>
   <sheetViews>

--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1930C1-5EAC-4D72-9BFB-A22600C0FE50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8312001E-E2AF-4F40-9AC1-3F8F701769ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="143">
   <si>
     <t>case_name</t>
   </si>
@@ -174,12 +174,398 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>删除保存的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"user_id":"130751354"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joybos.2112</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'list'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'end_date'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'list'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'end_date'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务流程到已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务流程到已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除已取消的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除已完成的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人驳回审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
-	"title":"家里事任务流程_保存任务",
+	"user_id":"1342",
+	"operation_type":"0",
+	"commit":"驳回"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务流程到审核被驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除审核被驳回的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"1342",
+	"operation_type":"1",
+	"commit":"同意"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"15510548580801665",
+	"operation_type":"0",
+	"commit":"申请取消",
+	"result":"这个项目进行不下去"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"1342",
+	"operation_type":"2",
+	"commit":"同意取消"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_审核人驳回取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"1342",
+	"operation_type":"1",
+	"commit":"驳回取消",
+	"result":"这个项目还可以执行",
+	"cancel":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_执行人发起验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"15510548580801665",
+	"operation_type":"1",
+	"commit":"已完成待验收",
+	"result":"所有工作都已经做完"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_验收人驳回验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"054155683935495559",
+	"operation_type":"0",
+	"commit":"达不到验收标准"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_验收人通过验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"054155683935495559",
+	"operation_type":"1",
+	"commit":"所有工作已完成，验收通过"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驳回取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成待验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达不到验收标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有工作已完成，验收通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试保存任务",
 	"start_date":"2019-09-10",
 	"end_date":"2019-10-20",
 	"type":"1",
-	"content":"家里事任务流程_保存任务",
+	"content":"家里事任务流程_测试保存任务",
 	"creator":"130751354",
 	"auditor":"1342",
 	"executor":"15510548580801665",
@@ -193,245 +579,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除保存的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"user_id":"130751354"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_保存任务';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joybos.2112</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'list'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'end_date'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'list'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'end_date'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事任务流程_保存任务</t>
-  </si>
-  <si>
-    <t>新建任务流程到已取消</t>
+    <t>家里事任务流程_测试保存任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试审核被驳回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-	"title":"家里事任务流程_流程到已取消",
+	"title":"家里事任务流程_测试审核被驳回",
 	"start_date":"2019-09-10",
 	"end_date":"2019-10-24",
 	"type":"1",
-	"content":"家里事任务流程_流程到已取消",
+	"content":"家里事任务流程_测试审核被驳回",
 	"creator":"130751354",
 	"auditor":"1342",
 	"executor":"15510548580801665",
@@ -446,20 +607,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>家里事任务流程_流程到已取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建任务流程到已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
-	"title":"家里事任务流程_流程到已完成",
+	"title":"家里事任务流程_测试流程到已取消",
 	"start_date":"2019-09-10",
 	"end_date":"2019-10-24",
 	"type":"1",
-	"content":"家里事任务流程_流程到已完成",
+	"content":"家里事任务流程_测试流程到已取消",
 	"creator":"130751354",
 	"auditor":"1342",
 	"executor":"15510548580801665",
@@ -474,52 +627,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>家里事任务流程_流程到已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除已取消的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除已完成的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_流程到已取消';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_流程到已完成';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人驳回审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/update</t>
+    <t>家里事任务流程_测试流程到已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试流程到已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-	"user_id":"1342",
-	"operation_type":"0",
-	"commit":"驳回"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建任务流程到审核被驳回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_审核被驳回",
+	"title":"家里事任务流程_测试流程到已完成",
 	"start_date":"2019-09-10",
 	"end_date":"2019-10-24",
 	"type":"1",
-	"content":"家里事任务流程_审核被驳回",
+	"content":"家里事任务流程_测试流程到已完成",
 	"creator":"130751354",
 	"auditor":"1342",
 	"executor":"15510548580801665",
@@ -534,147 +655,1415 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>家里事任务流程_审核被驳回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除审核被驳回的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_审核被驳回';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已取消任务_审核人通过审核</t>
+    <t>select uuid from task where title = '家里事任务流程_测试审核被驳回';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试流程到已取消';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试流程到已完成';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reliys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasknodenum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人驳回审核评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人驳回审核评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试保存任务';</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-	"user_id":"1342",
-	"operation_type":"1",
-	"commit":"同意"
+	"user_id":"130751354",
+	"task_node":"1",
+	"commit":"审核人驳回审核评论",
+	"status":5,
+	"file":"",
+	"photo":"",
+	"cc_user":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>commit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已取消任务_执行人申请取消</t>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'commit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'task_node'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消任务_审核人通过审核评论</t>
+  </si>
+  <si>
+    <t>已取消任务_审核人通过审核评论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-	"user_id":"15510548580801665",
-	"operation_type":"0",
-	"commit":"申请取消",
-	"result":"这个项目进行不下去"
+	"user_id":"130751354",
+	"task_node":"3",
+	"commit":"已取消任务_审核人通过审核评论",
+	"status":3,
+	"file":"",
+	"photo":"",
+	"cc_user":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已取消任务-审核人同意取消</t>
+    <t>已取消任务_执行人申请取消评论</t>
+  </si>
+  <si>
+    <t>已取消任务_执行人申请取消评论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-	"user_id":"1342",
-	"operation_type":"2",
-	"commit":"同意取消"
+	"user_id":"130751354",
+	"task_node":"2",
+	"commit":"已取消任务_执行人申请取消评论",
+	"status":8,
+	"file":"",
+	"photo":"",
+	"cc_user":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成任务-审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务_执行人申请取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务_审核人驳回取消</t>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'task_node'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_审核人通过审核评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消任务_审核人同意取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_执行人申请取消评论</t>
+  </si>
+  <si>
+    <t>已完成任务_执行人申请取消评论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-	"user_id":"1342",
-	"operation_type":"1",
-	"commit":"驳回取消",
-	"result":"这个项目还可以执行",
-	"cancel":"1"
+	"user_id":"130751354",
+	"task_node":"2",
+	"commit":"已完成任务_执行人申请取消评论",
+	"status":8,
+	"file":"",
+	"photo":"",
+	"cc_user":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成任务_执行人发起验收</t>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'commit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_审核人驳回取消评论</t>
+  </si>
+  <si>
+    <t>已完成任务_审核人驳回取消评论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-	"user_id":"15510548580801665",
-	"operation_type":"1",
-	"commit":"已完成待验收",
-	"result":"所有工作都已经做完"
+	"user_id":"130751354",
+	"task_node":"3",
+	"commit":"已完成任务_审核人驳回取消评论",
+	"status":5,
+	"file":"",
+	"photo":"",
+	"cc_user":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成任务_验收人驳回验收</t>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'commit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'task_node'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_执行人发起验收评论</t>
+  </si>
+  <si>
+    <t>已完成任务_执行人发起验收评论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-	"user_id":"054155683935495559",
-	"operation_type":"0",
-	"commit":"达不到验收标准"
+	"user_id":"130751354",
+	"task_node":"4",
+	"commit":"已完成任务_执行人发起验收评论",
+	"status":4,
+	"file":"",
+	"photo":"",
+	"cc_user":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成任务_验收人通过验收</t>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'commit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'task_node'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_验收人驳回验收评论</t>
+  </si>
+  <si>
+    <t>已完成任务_验收人驳回验收评论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-	"user_id":"054155683935495559",
-	"operation_type":"1",
-	"commit":"所有工作已完成，验收通过"
+	"user_id":"130751354",
+	"task_node":"3",
+	"commit":"已完成任务_验收人驳回验收评论",
+	"status":5,
+	"file":"",
+	"photo":"",
+	"cc_user":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>申请取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驳回取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成待验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达不到验收标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有工作已完成，验收通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驳回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同意取消</t>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'commit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'task_node'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务已取消</t>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'commit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'task_node'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'commit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'task_node'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收完成</t>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"3",
+	"commit":"已完成任务_审核人通过审核评论",
+	"status":3,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +2071,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +2120,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0451A5"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -752,7 +2148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -777,6 +2173,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,7 +2469,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1090,19 +2498,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1122,16 +2530,16 @@
         <v>200</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1151,16 +2559,16 @@
         <v>200</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1180,16 +2588,16 @@
         <v>200</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1209,16 +2617,16 @@
         <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1238,16 +2646,16 @@
         <v>200</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1267,16 +2675,16 @@
         <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1296,16 +2704,16 @@
         <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1325,16 +2733,16 @@
         <v>200</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1354,16 +2762,16 @@
         <v>200</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1383,16 +2791,16 @@
         <v>200</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1413,8 +2821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A6138-0A61-47C1-A7E8-238944BB7D5F}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1442,16 +2850,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="228" x14ac:dyDescent="0.2">
@@ -1462,7 +2870,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1471,24 +2879,24 @@
         <v>200</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1497,24 +2905,24 @@
         <v>200</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>51</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1523,24 +2931,24 @@
         <v>200</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1549,13 +2957,13 @@
         <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1574,25 +2982,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7693FB1-C9BA-4480-888D-56CE715BB47D}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="32.25" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="20" style="2" customWidth="1"/>
-    <col min="9" max="9" width="57.75" customWidth="1"/>
+    <col min="8" max="8" width="25.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="67.875" customWidth="1"/>
+    <col min="11" max="11" width="35.875" customWidth="1"/>
+    <col min="12" max="12" width="18.125" customWidth="1"/>
+    <col min="13" max="13" width="35.5" customWidth="1"/>
+    <col min="14" max="14" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1606,30 +3018,45 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1638,27 +3065,27 @@
         <v>200</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
         <v>94</v>
       </c>
-      <c r="I2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1667,27 +3094,27 @@
         <v>200</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>95</v>
+        <v>49</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1696,56 +3123,66 @@
         <v>200</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>96</v>
+        <v>49</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E5" s="6">
         <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>95</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H5"/>
       <c r="I5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1754,27 +3191,27 @@
         <v>200</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1783,56 +3220,66 @@
         <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>90</v>
+        <v>49</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6">
         <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>91</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H8"/>
       <c r="I8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -1841,27 +3288,27 @@
         <v>200</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -1870,76 +3317,689 @@
         <v>200</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6">
+        <v>200</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6">
+        <v>200</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12" t="s">
         <v>91</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6">
+        <v>200</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6">
+        <v>200</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6">
+        <v>200</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6">
+        <v>200</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="6">
+        <v>200</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6">
+        <v>200</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="6">
-        <v>200</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="E19" s="6">
+        <v>200</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6">
+        <v>200</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="6">
+        <v>200</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" t="s">
         <v>93</v>
       </c>
-      <c r="I11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="114" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    </row>
+    <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="6">
+        <v>200</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="6">
+        <v>200</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="I23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="6">
+        <v>200</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="6">
+        <v>200</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="6">
+        <v>200</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D12" t="s">
+      <c r="I26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="6">
-        <v>200</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" t="s">
-        <v>62</v>
-      </c>
-    </row>
+      <c r="E27" s="6">
+        <v>200</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="6">
+        <v>200</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="6">
+        <v>200</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="6">
+        <v>200</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1951,7 +4011,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1960,7 +4020,7 @@
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="55.5" customWidth="1"/>
+    <col min="5" max="5" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1977,75 +4037,75 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8312001E-E2AF-4F40-9AC1-3F8F701769ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BE46DF-2AC7-4372-A492-1DDF4BC061AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasklist" sheetId="1" r:id="rId1"/>
     <sheet name="addtask" sheetId="3" r:id="rId2"/>
     <sheet name="tasknode" sheetId="5" r:id="rId3"/>
-    <sheet name="deletetask" sheetId="4" r:id="rId4"/>
-    <sheet name="login" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="addproject" sheetId="6" r:id="rId4"/>
+    <sheet name="projectnode" sheetId="8" r:id="rId5"/>
+    <sheet name="deletetask" sheetId="4" r:id="rId6"/>
+    <sheet name="deleteproject" sheetId="7" r:id="rId7"/>
+    <sheet name="login" sheetId="2" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="169">
   <si>
     <t>case_name</t>
   </si>
@@ -46,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中任务列表显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/tasks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,34 +61,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中任务筛选_标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;title=测试&amp;status=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中任务筛选_角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;role=2&amp;user_id=1342&amp;status=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中任务筛选_进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;progress=1&amp;status=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中任务筛选_时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;date_way=1&amp;start_date=2019-09-01&amp;end_date=2019-10-20&amp;status=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,27 +109,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成任务列表显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;status=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务筛选_标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务筛选_角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务筛选_进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务筛选_时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -560,11 +523,1539 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>家里事任务流程_测试保存任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试审核被驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试流程到已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试流程到已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试审核被驳回';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试流程到已取消';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试流程到已完成';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reliys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasknodenum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人驳回审核评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人驳回审核评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试保存任务';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"1",
+	"commit":"审核人驳回审核评论",
+	"status":5,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'commit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'task_node'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消任务_审核人通过审核评论</t>
+  </si>
+  <si>
+    <t>已取消任务_审核人通过审核评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"3",
+	"commit":"已取消任务_审核人通过审核评论",
+	"status":3,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消任务_执行人申请取消评论</t>
+  </si>
+  <si>
+    <t>已取消任务_执行人申请取消评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"2",
+	"commit":"已取消任务_执行人申请取消评论",
+	"status":8,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'task_node'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_审核人通过审核评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消任务_审核人同意取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_执行人申请取消评论</t>
+  </si>
+  <si>
+    <t>已完成任务_执行人申请取消评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"2",
+	"commit":"已完成任务_执行人申请取消评论",
+	"status":8,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'commit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_审核人驳回取消评论</t>
+  </si>
+  <si>
+    <t>已完成任务_审核人驳回取消评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"3",
+	"commit":"已完成任务_审核人驳回取消评论",
+	"status":5,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'commit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'task_node'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_执行人发起验收评论</t>
+  </si>
+  <si>
+    <t>已完成任务_执行人发起验收评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"4",
+	"commit":"已完成任务_执行人发起验收评论",
+	"status":4,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'commit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'task_node'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_验收人驳回验收评论</t>
+  </si>
+  <si>
+    <t>已完成任务_验收人驳回验收评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"3",
+	"commit":"已完成任务_验收人驳回验收评论",
+	"status":5,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'commit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'task_node'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务已取消</t>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'commit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'task_node'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'commit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'data'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'reliys'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'task_node'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收完成</t>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"3",
+	"commit":"已完成任务_审核人通过审核评论",
+	"status":3,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_进行中_任务列表显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_进行中_任务筛选_标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_进行中_任务筛选_角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_进行中_任务筛选_进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_进行中_任务筛选_时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_已完成_任务列表显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_已完成_任务筛选_标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_已完成_任务筛选_角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_已完成_任务筛选_进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_已完成_任务筛选_时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建项目关联子任务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建项目关联子任务2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试项目子任务2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试项目子任务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试项目子任务1';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试项目子任务2';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事新建项目测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = "家里事任务流程_测试项目子任务1" UNION select uuid from task where title = "家里事任务流程_测试项目子任务2";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事新建项目测试';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"start_date":"2019-09-10",
+	"end_date":"2019-10-22",
+	"creator":"130751354",
+	"title":"家里事新建项目测试",
+	"type":"2",
+	"userIds":["1342","0139442436685131"],
+	"taskIds":[task_id1,task_id2]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 	"title":"家里事任务流程_测试保存任务",
 	"start_date":"2019-09-10",
 	"end_date":"2019-10-20",
-	"type":"1",
+	"type":"2",
 	"content":"家里事任务流程_测试保存任务",
 	"creator":"130751354",
 	"auditor":"1342",
@@ -579,19 +2070,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>家里事任务流程_测试保存任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事任务流程_测试审核被驳回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 	"title":"家里事任务流程_测试审核被驳回",
 	"start_date":"2019-09-10",
 	"end_date":"2019-10-24",
-	"type":"1",
+	"type":"2",
 	"content":"家里事任务流程_测试审核被驳回",
 	"creator":"130751354",
 	"auditor":"1342",
@@ -611,7 +2094,7 @@
 	"title":"家里事任务流程_测试流程到已取消",
 	"start_date":"2019-09-10",
 	"end_date":"2019-10-24",
-	"type":"1",
+	"type":"2",
 	"content":"家里事任务流程_测试流程到已取消",
 	"creator":"130751354",
 	"auditor":"1342",
@@ -627,19 +2110,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>家里事任务流程_测试流程到已取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事任务流程_测试流程到已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 	"title":"家里事任务流程_测试流程到已完成",
 	"start_date":"2019-09-10",
 	"end_date":"2019-10-24",
-	"type":"1",
+	"type":"2",
 	"content":"家里事任务流程_测试流程到已完成",
 	"creator":"130751354",
 	"auditor":"1342",
@@ -655,1415 +2130,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select uuid from task where title = '家里事任务流程_测试审核被驳回';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试流程到已取消';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试流程到已完成';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reliys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tasknodenum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人驳回审核评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人驳回审核评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试保存任务';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
-	"user_id":"130751354",
-	"task_node":"1",
-	"commit":"审核人驳回审核评论",
-	"status":5,
-	"file":"",
-	"photo":"",
-	"cc_user":""
+	"title":"家里事任务流程_测试项目子任务1",
+	"start_date":"2019-09-10",
+	"end_date":"2019-10-24",
+	"type":"2",
+	"content":"家里事任务流程_测试项目子任务1",
+	"creator":"130751354",
+	"auditor":"1342",
+	"executor":"15510548580801665",
+	"acceptor":"054155683935495559",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'commit'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'task_node'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已取消任务_审核人通过审核评论</t>
-  </si>
-  <si>
-    <t>已取消任务_审核人通过审核评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
-	"user_id":"130751354",
-	"task_node":"3",
-	"commit":"已取消任务_审核人通过审核评论",
-	"status":3,
-	"file":"",
-	"photo":"",
-	"cc_user":""
+	"title":"家里事任务流程_测试项目子任务2",
+	"start_date":"2019-09-10",
+	"end_date":"2019-10-24",
+	"type":"2",
+	"content":"家里事任务流程_测试项目子任务2",
+	"creator":"130751354",
+	"auditor":"1342",
+	"executor":"15510548580801665",
+	"acceptor":"054155683935495559",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已取消任务_执行人申请取消评论</t>
-  </si>
-  <si>
-    <t>已取消任务_执行人申请取消评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
-	"user_id":"130751354",
-	"task_node":"2",
-	"commit":"已取消任务_执行人申请取消评论",
-	"status":8,
-	"file":"",
-	"photo":"",
-	"cc_user":""
+	"id":project_id,
+	"userId":"130751354"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'task_node'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务_审核人通过审核评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已取消任务_审核人同意取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务_审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务_执行人申请取消评论</t>
-  </si>
-  <si>
-    <t>已完成任务_执行人申请取消评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"user_id":"130751354",
-	"task_node":"2",
-	"commit":"已完成任务_执行人申请取消评论",
-	"status":8,
-	"file":"",
-	"photo":"",
-	"cc_user":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'commit'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务_审核人驳回取消评论</t>
-  </si>
-  <si>
-    <t>已完成任务_审核人驳回取消评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"user_id":"130751354",
-	"task_node":"3",
-	"commit":"已完成任务_审核人驳回取消评论",
-	"status":5,
-	"file":"",
-	"photo":"",
-	"cc_user":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'commit'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'task_node'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务_执行人发起验收评论</t>
-  </si>
-  <si>
-    <t>已完成任务_执行人发起验收评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"user_id":"130751354",
-	"task_node":"4",
-	"commit":"已完成任务_执行人发起验收评论",
-	"status":4,
-	"file":"",
-	"photo":"",
-	"cc_user":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'commit'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'task_node'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务_验收人驳回验收评论</t>
-  </si>
-  <si>
-    <t>已完成任务_验收人驳回验收评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"user_id":"130751354",
-	"task_node":"3",
-	"commit":"已完成任务_验收人驳回验收评论",
-	"status":5,
-	"file":"",
-	"photo":"",
-	"cc_user":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'commit'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'task_node'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务已取消</t>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'commit'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'task_node'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'commit'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'task_node'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收完成</t>
-  </si>
-  <si>
-    <t>{
-	"user_id":"130751354",
-	"task_node":"3",
-	"commit":"已完成任务_审核人通过审核评论",
-	"status":3,
-	"file":"",
-	"photo":"",
-	"cc_user":""
-}</t>
+    <t>项目详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事新建项目测试</t>
+  </si>
+  <si>
+    <t>家里事任务流程_测试项目子任务1</t>
+  </si>
+  <si>
+    <t>家里事任务流程_测试项目子任务2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = "家里事任务流程_测试项目子任务1" UNION select category from task where title = "家里事任务流程_测试项目子任务1";</t>
+  </si>
+  <si>
+    <t>select uuid from task where title = "家里事任务流程_测试项目子任务2" UNION select category from task where title = "家里事任务流程_测试项目子任务2";</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2468,13 +2615,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="110.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
@@ -2498,309 +2645,309 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="6">
         <v>200</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6">
         <v>200</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6">
         <v>200</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="6">
         <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6">
         <v>200</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6">
         <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="6">
         <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="6">
         <v>200</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="6">
         <v>200</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="6">
         <v>200</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2819,13 +2966,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A6138-0A61-47C1-A7E8-238944BB7D5F}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
@@ -2833,10 +2980,10 @@
     <col min="4" max="4" width="19.125" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="27.625" customWidth="1"/>
+    <col min="8" max="8" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2850,128 +2997,173 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6">
+        <v>200</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6">
+        <v>200</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6">
+        <v>200</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="228" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6">
-        <v>200</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6">
-        <v>200</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6">
-        <v>200</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6">
         <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6">
+        <v>200</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6">
+        <v>200</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2984,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7693FB1-C9BA-4480-888D-56CE715BB47D}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3018,157 +3210,157 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6">
         <v>200</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6">
         <v>200</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6">
         <v>200</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="6">
         <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -3176,96 +3368,96 @@
     </row>
     <row r="6" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6">
         <v>200</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7" s="6">
         <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="6">
         <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -3273,96 +3465,96 @@
     </row>
     <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E9" s="6">
         <v>200</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E10" s="6">
         <v>200</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
         <v>79</v>
-      </c>
-      <c r="I10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="6">
         <v>200</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -3370,38 +3562,38 @@
     </row>
     <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="6">
         <v>200</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3409,96 +3601,96 @@
     </row>
     <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E13" s="6">
         <v>200</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E14" s="6">
         <v>200</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="6">
         <v>200</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -3506,96 +3698,96 @@
     </row>
     <row r="16" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E16" s="6">
         <v>200</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E17" s="6">
         <v>200</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="6">
         <v>200</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J18">
         <v>8</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -3603,67 +3795,67 @@
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E19" s="6">
         <v>200</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="6">
         <v>200</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J20">
         <v>9</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -3671,67 +3863,67 @@
     </row>
     <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E21" s="6">
         <v>200</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="6">
         <v>200</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -3739,96 +3931,96 @@
     </row>
     <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E23" s="6">
         <v>200</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E24" s="6">
         <v>200</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="6">
         <v>200</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J25">
         <v>8</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -3836,96 +4028,96 @@
     </row>
     <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E26" s="6">
         <v>200</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E27" s="6">
         <v>200</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" s="6">
         <v>200</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -3933,60 +4125,60 @@
     </row>
     <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E29" s="6">
         <v>200</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E30" s="6">
         <v>200</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="I30" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4007,11 +4199,232 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9E7A1F-7893-4CEF-BCBF-13402B2B9748}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B091D127-9834-4C0F-B8FD-968C2FAB0C28}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="77.125" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6">
+        <v>200</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9469492-EF4E-4896-98B9-CA5BD716B38C}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="36.625" customWidth="1"/>
+    <col min="9" max="9" width="31.625" customWidth="1"/>
+    <col min="10" max="10" width="30.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="6">
+        <v>200</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6">
+        <v>200</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6">
+        <v>200</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9E7A1F-7893-4CEF-BCBF-13402B2B9748}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4021,9 +4434,11 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="23.625" customWidth="1"/>
     <col min="5" max="5" width="61.25" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4037,75 +4452,172 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="6">
+        <v>200</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="F3" s="6">
+        <v>200</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="F4" s="6">
+        <v>200</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>79</v>
+      </c>
+      <c r="F5" s="6">
+        <v>200</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="6">
+        <v>200</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="6">
+        <v>200</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4115,7 +4627,84 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C38B9A9-4F6E-48CF-9C22-8A0B1CD9A8D9}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="6">
+        <v>200</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3EF3FA-0A23-486E-B7C7-18DBDED11BB6}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4147,44 +4736,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BE46DF-2AC7-4372-A492-1DDF4BC061AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5713F7B1-3E7F-4552-9E9D-7FA71208EC4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasklist" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="173">
   <si>
     <t>case_name</t>
   </si>
@@ -2170,47 +2170,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>项目详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事新建项目测试</t>
+  </si>
+  <si>
+    <t>家里事任务流程_测试项目子任务1</t>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = "家里事任务流程_测试项目子任务2" UNION select category from task where title = "家里事任务流程_测试项目子任务2";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除项目关联子任务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除项目关联子任务2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
-	"id":project_id,
+	"projectId":project_id,
 	"userId":"130751354"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/project/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事新建项目测试</t>
-  </si>
-  <si>
-    <t>家里事任务流程_测试项目子任务1</t>
-  </si>
-  <si>
-    <t>家里事任务流程_测试项目子任务2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>select uuid from task where title = "家里事任务流程_测试项目子任务1" UNION select category from task where title = "家里事任务流程_测试项目子任务1";</t>
-  </si>
-  <si>
-    <t>select uuid from task where title = "家里事任务流程_测试项目子任务2" UNION select category from task where title = "家里事任务流程_测试项目子任务2";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试项目子任务1';</t>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试项目子任务2';</t>
+  </si>
+  <si>
+    <t>项目子任务详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2615,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2969,7 +2984,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3177,7 +3192,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="A5" sqref="A5:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3223,21 +3238,6 @@
       </c>
       <c r="I1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -4203,7 +4203,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4282,22 +4282,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9469492-EF4E-4896-98B9-CA5BD716B38C}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="8" max="8" width="36.625" customWidth="1"/>
-    <col min="9" max="9" width="31.625" customWidth="1"/>
+    <col min="9" max="9" width="64.125" customWidth="1"/>
     <col min="10" max="10" width="30.125" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="14" max="14" width="20.625" customWidth="1"/>
+    <col min="16" max="16" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4320,44 +4327,62 @@
         <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
         <v>159</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6">
+        <v>200</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" t="s">
         <v>160</v>
       </c>
-      <c r="D2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="6">
-        <v>200</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -4374,45 +4399,898 @@
       <c r="G3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
-        <v>167</v>
-      </c>
       <c r="I3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3">
+        <v>169</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6">
+        <v>200</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>81</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6">
-        <v>200</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J4">
+      <c r="E5" s="6">
+        <v>200</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6">
+        <v>200</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6">
+        <v>200</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6">
+        <v>200</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>200</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6">
+        <v>200</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6">
+        <v>200</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6">
+        <v>200</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O12">
         <v>1</v>
       </c>
-    </row>
+      <c r="P12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6">
+        <v>200</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="6">
+        <v>200</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="6">
+        <v>200</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6">
+        <v>200</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6">
+        <v>200</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="6">
+        <v>200</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="6">
+        <v>200</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6">
+        <v>200</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="6">
+        <v>200</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="6">
+        <v>200</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="6">
+        <v>200</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="6">
+        <v>200</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="6">
+        <v>200</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>171</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="6">
+        <v>200</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="6">
+        <v>200</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="6">
+        <v>200</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="6">
+        <v>200</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="6">
+        <v>200</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4424,7 +5302,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4570,7 +5448,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -4596,7 +5474,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -4631,17 +5509,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C38B9A9-4F6E-48CF-9C22-8A0B1CD9A8D9}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.5" customWidth="1"/>
     <col min="6" max="7" width="11.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4680,7 +5558,7 @@
         <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -4701,6 +5579,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5713F7B1-3E7F-4552-9E9D-7FA71208EC4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D89CDCA-AB0F-4FA9-B89C-3D85F7B7D131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasklist" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="projectnode" sheetId="8" r:id="rId5"/>
     <sheet name="deletetask" sheetId="4" r:id="rId6"/>
     <sheet name="deleteproject" sheetId="7" r:id="rId7"/>
-    <sheet name="login" sheetId="2" state="hidden" r:id="rId8"/>
+    <sheet name="notice" sheetId="9" r:id="rId8"/>
+    <sheet name="login" sheetId="2" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="234">
   <si>
     <t>case_name</t>
   </si>
@@ -2228,12 +2229,289 @@
     <t>项目子任务详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>项目子任务_已完成任务_审核人通过审核评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_任务详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_验收人驳回验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_验收人驳回验收评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_执行人发起验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_验收人通过验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已取消任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已取消任务_审核人通过审核评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已取消任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已取消任务_执行人申请取消评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已取消任务_审核人同意取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_执行人申请取消评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_审核人驳回取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_执行人发起验收评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息全部已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"login_user":"130751354"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空已读消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息通知流程到已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试消息通知流程到已取消",
+	"start_date":"2019-09-10",
+	"end_date":"2019-10-24",
+	"type":"2",
+	"content":"家里事任务流程_测试消息通知流程到已取消",
+	"creator":"130751354",
+	"auditor":"1342",
+	"executor":"15510548580801665",
+	"acceptor":"054155683935495559",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试消息通知流程到已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已取消任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试消息通知流程到已取消';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除消息通知流程到已取消任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['data']['list'][0]['content'][-20:-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['data']['list'][0]['content'][-19:-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['data']['list'][0]['content'][-21:-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['data']['list'][0]['content'][-14:-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息通知流程到已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试消息通知流程到已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试消息通知流程到已完成';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除消息通知流程到已完成任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已取消任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已取消任务_审核人同意取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_审核人驳回取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_执行人发起验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_验收人驳回验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_验收人通过验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试消息通知流程到已完成",
+	"start_date":"2019-09-10",
+	"end_date":"2019-10-24",
+	"type":"2",
+	"content":"家里事任务流程_测试消息通知流程到已完成",
+	"creator":"130751354",
+	"auditor":"1342",
+	"executor":"15510548580801665",
+	"acceptor":"054155683935495559",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被审核人“王维权”通过审核，任务开始执行</t>
+  </si>
+  <si>
+    <t>login_user=15510548580801665&amp;page_num=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被审核人“王维权”通过审核，待您执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被执行人“王枫”申请取消，待您审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['data']['list'][0]['content'][-18:-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=1342&amp;page_num=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被审核人“王维权”审核取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=054155683935495559&amp;page_num=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被审核人“王维权”驳回取消任务，待您执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被执行人“王枫”发起验收，待您验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被验收人“赵劲雄”驳回验收，待您处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被验收人“赵劲雄”通过验收，任务已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2289,6 +2567,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2310,7 +2595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2347,6 +2632,22 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2981,10 +3282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A6138-0A61-47C1-A7E8-238944BB7D5F}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3180,6 +3481,58 @@
         <v>141</v>
       </c>
     </row>
+    <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6">
+        <v>200</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>200</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3191,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7693FB1-C9BA-4480-888D-56CE715BB47D}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD11"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4284,8 +4637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9469492-EF4E-4896-98B9-CA5BD716B38C}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4411,7 +4764,7 @@
     </row>
     <row r="4" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -4440,7 +4793,7 @@
     </row>
     <row r="5" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -4478,7 +4831,7 @@
     </row>
     <row r="6" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -4507,7 +4860,7 @@
     </row>
     <row r="7" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
         <v>80</v>
@@ -4536,7 +4889,7 @@
     </row>
     <row r="8" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -4574,7 +4927,7 @@
     </row>
     <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -4603,7 +4956,7 @@
     </row>
     <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -4632,7 +4985,7 @@
     </row>
     <row r="11" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -4699,7 +5052,7 @@
     </row>
     <row r="13" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -4728,7 +5081,7 @@
     </row>
     <row r="14" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -4757,7 +5110,7 @@
     </row>
     <row r="15" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -4795,7 +5148,7 @@
     </row>
     <row r="16" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
@@ -4824,7 +5177,7 @@
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
         <v>80</v>
@@ -4853,7 +5206,7 @@
     </row>
     <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -4891,7 +5244,7 @@
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -4920,7 +5273,7 @@
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -4958,7 +5311,7 @@
     </row>
     <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
@@ -4987,7 +5340,7 @@
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -5025,7 +5378,7 @@
     </row>
     <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
@@ -5054,7 +5407,7 @@
     </row>
     <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
         <v>80</v>
@@ -5083,7 +5436,7 @@
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -5121,7 +5474,7 @@
     </row>
     <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
@@ -5179,7 +5532,7 @@
     </row>
     <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -5217,7 +5570,7 @@
     </row>
     <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s">
         <v>46</v>
@@ -5246,7 +5599,7 @@
     </row>
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
         <v>80</v>
@@ -5294,15 +5647,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9E7A1F-7893-4CEF-BCBF-13402B2B9748}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5498,6 +5852,58 @@
         <v>39</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="6">
+        <v>200</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="6">
+        <v>200</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5510,7 +5916,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5584,6 +5990,906 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEA9D88-B6E7-458C-A379-E2D27B1DAAD6}">
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.75" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="46.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13" style="14" customWidth="1"/>
+    <col min="5" max="6" width="14" style="14" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="14" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="71.25" style="14" customWidth="1"/>
+    <col min="10" max="10" width="30.625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="41.875" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="16">
+        <v>200</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="16">
+        <v>200</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="16">
+        <v>200</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="16">
+        <v>200</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="16">
+        <v>200</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="16">
+        <v>200</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16">
+        <v>200</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="16">
+        <v>200</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="16">
+        <v>200</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16">
+        <v>200</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="16">
+        <v>200</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="16">
+        <v>200</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="16">
+        <v>200</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="16">
+        <v>200</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16">
+        <v>200</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="16">
+        <v>200</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="16">
+        <v>200</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="16">
+        <v>200</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="16">
+        <v>200</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="16">
+        <v>200</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="16">
+        <v>200</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="16">
+        <v>200</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="16">
+        <v>200</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="16">
+        <v>200</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="16">
+        <v>200</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="16">
+        <v>200</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="16">
+        <v>200</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="16">
+        <v>200</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="16">
+        <v>200</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3EF3FA-0A23-486E-B7C7-18DBDED11BB6}">
   <dimension ref="A1:D4"/>
   <sheetViews>

--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D89CDCA-AB0F-4FA9-B89C-3D85F7B7D131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678209F4-52CC-4958-B3A2-2BCBE5775898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="249">
   <si>
     <t>case_name</t>
   </si>
@@ -2294,10 +2294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消息全部已读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/notice/reading</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2309,10 +2305,6 @@
   </si>
   <si>
     <t>/notice/empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空已读消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2344,10 +2336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/notices</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2504,6 +2492,110 @@
   </si>
   <si>
     <t>被验收人“赵劲雄”通过验收，任务已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建我的任务到执行中1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建我的任务到执行中2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试流程到执行中1",
+	"start_date":"2019-09-10",
+	"end_date":"2019-10-24",
+	"type":"2",
+	"content":"家里事任务流程_测试流程到执行中1",
+	"creator":"130751354",
+	"auditor":"1342",
+	"executor":"15510548580801665",
+	"acceptor":"054155683935495559",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试流程到执行中2",
+	"start_date":"2019-09-10",
+	"end_date":"2019-10-24",
+	"type":"2",
+	"content":"家里事任务流程_测试流程到执行中2",
+	"creator":"130751354",
+	"auditor":"1342",
+	"executor":"15510548580801665",
+	"acceptor":"054155683935495559",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试流程到执行中1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试流程到执行中2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除执行中任务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除执行中任务2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试流程到执行中1';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试流程到执行中2';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行中任务1_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行中任务2_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表_消息全部已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表_清空已读消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起人消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行人消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收人消息列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2931,8 +3023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3282,10 +3374,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A6138-0A61-47C1-A7E8-238944BB7D5F}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3483,13 +3575,13 @@
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -3504,18 +3596,18 @@
         <v>39</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -3530,7 +3622,59 @@
         <v>39</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6">
+        <v>200</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6">
+        <v>200</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3544,8 +3688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7693FB1-C9BA-4480-888D-56CE715BB47D}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:I10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3682,13 +3826,16 @@
     </row>
     <row r="5" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6">
         <v>200</v>
@@ -3699,38 +3846,22 @@
       <c r="G5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H5"/>
+      <c r="H5" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="I5" t="s">
         <v>79</v>
       </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6">
         <v>200</v>
@@ -3741,22 +3872,35 @@
       <c r="G6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="H6"/>
       <c r="I6" t="s">
         <v>79</v>
       </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -3770,8 +3914,8 @@
       <c r="G7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>117</v>
+      <c r="H7" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -3779,13 +3923,16 @@
     </row>
     <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8" s="6">
         <v>200</v>
@@ -3796,38 +3943,22 @@
       <c r="G8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H8"/>
+      <c r="H8" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="I8" t="s">
         <v>79</v>
       </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E9" s="6">
         <v>200</v>
@@ -3838,22 +3969,35 @@
       <c r="G9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="H9"/>
       <c r="I9" t="s">
         <v>79</v>
       </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -3867,22 +4011,25 @@
       <c r="G10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>69</v>
+      <c r="H10" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E11" s="6">
         <v>200</v>
@@ -3893,24 +4040,11 @@
       <c r="G11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H11"/>
+      <c r="H11" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="I11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="N11">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4534,8 +4668,74 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="6">
+        <v>200</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="6">
+        <v>200</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="33" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5653,10 +5853,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9E7A1F-7893-4CEF-BCBF-13402B2B9748}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5665,7 +5865,7 @@
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="61.25" customWidth="1"/>
+    <col min="5" max="5" width="71.75" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
@@ -5854,7 +6054,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -5866,7 +6066,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F8" s="6">
         <v>200</v>
@@ -5880,7 +6080,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -5892,7 +6092,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F9" s="6">
         <v>200</v>
@@ -5901,6 +6101,58 @@
         <v>35</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="6">
+        <v>200</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="6">
+        <v>200</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5994,7 +6246,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6041,21 +6293,21 @@
         <v>29</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>14</v>
@@ -6072,13 +6324,13 @@
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>14</v>
@@ -6095,7 +6347,7 @@
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>46</v>
@@ -6119,18 +6371,18 @@
         <v>71</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>6</v>
@@ -6145,15 +6397,15 @@
         <v>39</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>46</v>
@@ -6177,12 +6429,12 @@
         <v>67</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>46</v>
@@ -6206,18 +6458,18 @@
         <v>69</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>6</v>
@@ -6232,21 +6484,21 @@
         <v>39</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>6</v>
@@ -6261,21 +6513,21 @@
         <v>39</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>6</v>
@@ -6290,21 +6542,21 @@
         <v>39</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>6</v>
@@ -6319,10 +6571,10 @@
         <v>39</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
@@ -6333,7 +6585,7 @@
     </row>
     <row r="12" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>46</v>
@@ -6357,18 +6609,18 @@
         <v>71</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>6</v>
@@ -6383,21 +6635,21 @@
         <v>39</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>6</v>
@@ -6412,15 +6664,15 @@
         <v>39</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>46</v>
@@ -6444,18 +6696,18 @@
         <v>65</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>6</v>
@@ -6470,15 +6722,15 @@
         <v>39</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>46</v>
@@ -6502,18 +6754,18 @@
         <v>72</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>6</v>
@@ -6528,21 +6780,21 @@
         <v>39</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>6</v>
@@ -6557,21 +6809,21 @@
         <v>39</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>6</v>
@@ -6586,21 +6838,21 @@
         <v>39</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>6</v>
@@ -6615,21 +6867,21 @@
         <v>39</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>6</v>
@@ -6644,21 +6896,21 @@
         <v>39</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>6</v>
@@ -6673,15 +6925,15 @@
         <v>39</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>46</v>
@@ -6705,18 +6957,18 @@
         <v>65</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>6</v>
@@ -6731,15 +6983,15 @@
         <v>39</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>46</v>
@@ -6763,18 +7015,18 @@
         <v>66</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>6</v>
@@ -6789,15 +7041,15 @@
         <v>39</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>46</v>
@@ -6821,18 +7073,18 @@
         <v>67</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>6</v>
@@ -6847,15 +7099,15 @@
         <v>39</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>46</v>
@@ -6879,7 +7131,7 @@
         <v>68</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678209F4-52CC-4958-B3A2-2BCBE5775898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6B414C-C71F-4F8A-BDB2-9629675CFF55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasklist" sheetId="1" r:id="rId1"/>
@@ -54,30 +54,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;status=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;title=测试&amp;status=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;role=2&amp;user_id=1342&amp;status=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;progress=1&amp;status=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;date_way=1&amp;start_date=2019-09-01&amp;end_date=2019-10-20&amp;status=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,26 +87,6 @@
   </si>
   <si>
     <t>name=xiaoming&amp;pwd=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;status=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;title=测试&amp;status=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;role=1&amp;user_id=130751354&amp;status=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;progress=4&amp;status=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=1342&amp;page_num=1&amp;page_size=10&amp;date_way=1&amp;start_date=2019-09-01&amp;end_date=2019-10-20&amp;status=6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2052,10 +2012,358 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>项目详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事新建项目测试</t>
+  </si>
+  <si>
+    <t>家里事任务流程_测试项目子任务1</t>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = "家里事任务流程_测试项目子任务2" UNION select category from task where title = "家里事任务流程_测试项目子任务2";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除项目关联子任务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除项目关联子任务2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"projectId":project_id,
+	"userId":"130751354"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = "家里事任务流程_测试项目子任务1" UNION select category from task where title = "家里事任务流程_测试项目子任务1";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试项目子任务1';</t>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试项目子任务2';</t>
+  </si>
+  <si>
+    <t>项目子任务详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_审核人通过审核评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_任务详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_验收人驳回验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_验收人驳回验收评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_执行人发起验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_验收人通过验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已取消任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已取消任务_审核人通过审核评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已取消任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已取消任务_执行人申请取消评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已取消任务_审核人同意取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_执行人申请取消评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_审核人驳回取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_执行人发起验收评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"login_user":"130751354"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息通知流程到已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试消息通知流程到已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已取消任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试消息通知流程到已取消';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除消息通知流程到已取消任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['data']['list'][0]['content'][-20:-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['data']['list'][0]['content'][-19:-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['data']['list'][0]['content'][-21:-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['data']['list'][0]['content'][-14:-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息通知流程到已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试消息通知流程到已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试消息通知流程到已完成';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除消息通知流程到已完成任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已取消任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已取消任务_审核人同意取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_审核人驳回取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_执行人发起验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_验收人驳回验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_验收人通过验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被审核人“王维权”通过审核，任务开始执行</t>
+  </si>
+  <si>
+    <t>login_user=15510548580801665&amp;page_num=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被审核人“王维权”通过审核，待您执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被执行人“王枫”申请取消，待您审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['data']['list'][0]['content'][-18:-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=1342&amp;page_num=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被审核人“王维权”审核取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=054155683935495559&amp;page_num=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被审核人“王维权”驳回取消任务，待您执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被执行人“王枫”发起验收，待您验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被验收人“赵劲雄”驳回验收，待您处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被验收人“赵劲雄”通过验收，任务已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建我的任务到执行中1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建我的任务到执行中2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试流程到执行中1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试流程到执行中2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除执行中任务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除执行中任务2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试流程到执行中1';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试流程到执行中2';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行中任务1_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行中任务2_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表_消息全部已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表_清空已读消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起人消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行人消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收人消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 	"title":"家里事任务流程_测试保存任务",
 	"start_date":"2019-09-10",
-	"end_date":"2019-10-20",
+	"end_date":"2019-12-20",
 	"type":"2",
 	"content":"家里事任务流程_测试保存任务",
 	"creator":"130751354",
@@ -2074,7 +2382,7 @@
     <t>{
 	"title":"家里事任务流程_测试审核被驳回",
 	"start_date":"2019-09-10",
-	"end_date":"2019-10-24",
+	"end_date":"2019-12-24",
 	"type":"2",
 	"content":"家里事任务流程_测试审核被驳回",
 	"creator":"130751354",
@@ -2094,7 +2402,7 @@
     <t>{
 	"title":"家里事任务流程_测试流程到已取消",
 	"start_date":"2019-09-10",
-	"end_date":"2019-10-24",
+	"end_date":"2019-12-24",
 	"type":"2",
 	"content":"家里事任务流程_测试流程到已取消",
 	"creator":"130751354",
@@ -2114,7 +2422,7 @@
     <t>{
 	"title":"家里事任务流程_测试流程到已完成",
 	"start_date":"2019-09-10",
-	"end_date":"2019-10-24",
+	"end_date":"2019-12-24",
 	"type":"2",
 	"content":"家里事任务流程_测试流程到已完成",
 	"creator":"130751354",
@@ -2134,7 +2442,7 @@
     <t>{
 	"title":"家里事任务流程_测试项目子任务1",
 	"start_date":"2019-09-10",
-	"end_date":"2019-10-24",
+	"end_date":"2019-12-24",
 	"type":"2",
 	"content":"家里事任务流程_测试项目子任务1",
 	"creator":"130751354",
@@ -2154,7 +2462,7 @@
     <t>{
 	"title":"家里事任务流程_测试项目子任务2",
 	"start_date":"2019-09-10",
-	"end_date":"2019-10-24",
+	"end_date":"2019-12-24",
 	"type":"2",
 	"content":"家里事任务流程_测试项目子任务2",
 	"creator":"130751354",
@@ -2171,151 +2479,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/project/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事新建项目测试</t>
-  </si>
-  <si>
-    <t>家里事任务流程_测试项目子任务1</t>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = "家里事任务流程_测试项目子任务2" UNION select category from task where title = "家里事任务流程_测试项目子任务2";</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除项目关联子任务1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除项目关联子任务2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"projectId":project_id,
-	"userId":"130751354"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = "家里事任务流程_测试项目子任务1" UNION select category from task where title = "家里事任务流程_测试项目子任务1";</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试项目子任务1';</t>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试项目子任务2';</t>
-  </si>
-  <si>
-    <t>项目子任务详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_审核人通过审核评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_任务详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_验收人驳回验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_验收人驳回验收评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_执行人发起验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_验收人通过验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已取消任务_审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已取消任务_审核人通过审核评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已取消任务_执行人申请取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已取消任务_执行人申请取消评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已取消任务_审核人同意取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_执行人申请取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_执行人申请取消评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_审核人驳回取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_执行人发起验收评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/notice/reading</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"login_user":"130751354"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/notice/empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息通知流程到已取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 	"title":"家里事任务流程_测试消息通知流程到已取消",
 	"start_date":"2019-09-10",
-	"end_date":"2019-10-24",
+	"end_date":"2019-12-24",
 	"type":"2",
 	"content":"家里事任务流程_测试消息通知流程到已取消",
 	"creator":"130751354",
@@ -2332,106 +2499,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>家里事任务流程_测试消息通知流程到已取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/notices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已取消任务_审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=130751354&amp;page_num=1&amp;page_size=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试消息通知流程到已取消';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除消息通知流程到已取消任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data['data']['list'][0]['content'][-20:-1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data['data']['list'][0]['content'][-19:-1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data['data']['list'][0]['content'][-21:-1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data['data']['list'][0]['content'][-14:-1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息通知流程到已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事任务流程_测试消息通知流程到已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试消息通知流程到已完成';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除消息通知流程到已完成任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已取消任务_执行人申请取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已取消任务_审核人同意取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已完成任务_审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已完成任务_执行人申请取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已完成任务_审核人驳回取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已完成任务_执行人发起验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已完成任务_验收人驳回验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已完成任务_验收人通过验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 	"title":"家里事任务流程_测试消息通知流程到已完成",
 	"start_date":"2019-09-10",
-	"end_date":"2019-10-24",
+	"end_date":"2019-12-24",
 	"type":"2",
 	"content":"家里事任务流程_测试消息通知流程到已完成",
 	"creator":"130751354",
@@ -2448,65 +2519,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被审核人“王维权”通过审核，任务开始执行</t>
-  </si>
-  <si>
-    <t>login_user=15510548580801665&amp;page_num=1&amp;page_size=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被审核人“王维权”通过审核，待您执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被执行人“王枫”申请取消，待您审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data['data']['list'][0]['content'][-18:-1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=1342&amp;page_num=1&amp;page_size=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被审核人“王维权”审核取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=054155683935495559&amp;page_num=1&amp;page_size=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被审核人“王维权”驳回取消任务，待您执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被执行人“王枫”发起验收，待您验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被验收人“赵劲雄”驳回验收，待您处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被验收人“赵劲雄”通过验收，任务已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建我的任务到执行中1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建我的任务到执行中2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 	"title":"家里事任务流程_测试流程到执行中1",
 	"start_date":"2019-09-10",
-	"end_date":"2019-10-24",
+	"end_date":"2019-12-24",
 	"type":"2",
 	"content":"家里事任务流程_测试流程到执行中1",
 	"creator":"130751354",
@@ -2526,7 +2542,7 @@
     <t>{
 	"title":"家里事任务流程_测试流程到执行中2",
 	"start_date":"2019-09-10",
-	"end_date":"2019-10-24",
+	"end_date":"2019-12-24",
 	"type":"2",
 	"content":"家里事任务流程_测试流程到执行中2",
 	"creator":"130751354",
@@ -2543,59 +2559,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>家里事任务流程_测试流程到执行中1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事任务流程_测试流程到执行中2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除执行中任务1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除执行中任务2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试流程到执行中1';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试流程到执行中2';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行中任务1_审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行中任务2_审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表_消息全部已读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表_清空已读消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起人消息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行人消息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人消息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收人消息列表</t>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;progress=1&amp;status=0</t>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;date_way=1&amp;start_date=2019-09-01&amp;end_date=2019-10-20&amp;status=0</t>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;status=6</t>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;title=测试&amp;status=6</t>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;progress=4&amp;status=6</t>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;date_way=1&amp;start_date=2019-09-01&amp;end_date=2019-10-20&amp;status=6</t>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;title=测试&amp;status=0</t>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;role=2&amp;user_id=1342&amp;status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;role=1&amp;user_id=1342&amp;status=6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3023,8 +3016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3053,309 +3046,309 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6">
         <v>200</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6">
         <v>200</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6">
         <v>200</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>240</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6">
         <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6">
         <v>200</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6">
         <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="6">
         <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6">
         <v>200</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6">
         <v>200</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="6">
         <v>200</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3376,8 +3369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A6138-0A61-47C1-A7E8-238944BB7D5F}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3405,276 +3398,276 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6">
         <v>200</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6">
         <v>200</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6">
         <v>200</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6">
         <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E6" s="6">
         <v>200</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6">
         <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6">
         <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6">
         <v>200</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E10" s="6">
         <v>200</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E11" s="6">
         <v>200</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3722,171 +3715,171 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6">
         <v>200</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6">
         <v>200</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6">
         <v>200</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6">
         <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6">
         <v>200</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -3894,96 +3887,96 @@
     </row>
     <row r="7" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6">
         <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6">
         <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
         <v>69</v>
-      </c>
-      <c r="I8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6">
         <v>200</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -3991,96 +3984,96 @@
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E10" s="6">
         <v>200</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E11" s="6">
         <v>200</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="6">
         <v>200</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -4088,96 +4081,96 @@
     </row>
     <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E13" s="6">
         <v>200</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E14" s="6">
         <v>200</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="6">
         <v>200</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -4185,96 +4178,96 @@
     </row>
     <row r="16" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E16" s="6">
         <v>200</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E17" s="6">
         <v>200</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="6">
         <v>200</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J18">
         <v>8</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -4282,67 +4275,67 @@
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E19" s="6">
         <v>200</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="6">
         <v>200</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J20">
         <v>9</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -4350,67 +4343,67 @@
     </row>
     <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E21" s="6">
         <v>200</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="6">
         <v>200</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -4418,96 +4411,96 @@
     </row>
     <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E23" s="6">
         <v>200</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E24" s="6">
         <v>200</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="6">
         <v>200</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J25">
         <v>8</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -4515,96 +4508,96 @@
     </row>
     <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E26" s="6">
         <v>200</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E27" s="6">
         <v>200</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I27" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="6">
         <v>200</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -4612,96 +4605,96 @@
     </row>
     <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E29" s="6">
         <v>200</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E30" s="6">
         <v>200</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I30" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" s="6">
         <v>200</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J31">
         <v>4</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N31">
         <v>3</v>
@@ -4709,31 +4702,31 @@
     </row>
     <row r="32" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E32" s="6">
         <v>200</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4785,42 +4778,42 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6">
         <v>200</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="4"/>
@@ -4871,159 +4864,159 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="6">
         <v>200</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6">
         <v>200</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6">
         <v>200</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6">
         <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -5031,95 +5024,95 @@
     </row>
     <row r="6" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E6" s="6">
         <v>200</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6">
         <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="6">
         <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -5127,95 +5120,95 @@
     </row>
     <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6">
         <v>200</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E10" s="6">
         <v>200</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="6">
         <v>200</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -5223,124 +5216,124 @@
     </row>
     <row r="12" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="6">
         <v>200</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E13" s="6">
         <v>200</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E14" s="6">
         <v>200</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="6">
         <v>200</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -5348,95 +5341,95 @@
     </row>
     <row r="16" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E16" s="6">
         <v>200</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E17" s="6">
         <v>200</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="6">
         <v>200</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="J18">
         <v>8</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -5444,66 +5437,66 @@
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E19" s="6">
         <v>200</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="6">
         <v>200</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="J20">
         <v>9</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -5511,66 +5504,66 @@
     </row>
     <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E21" s="6">
         <v>200</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="6">
         <v>200</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -5578,95 +5571,95 @@
     </row>
     <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E23" s="6">
         <v>200</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E24" s="6">
         <v>200</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="6">
         <v>200</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="J25">
         <v>8</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -5674,95 +5667,95 @@
     </row>
     <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E26" s="6">
         <v>200</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E27" s="6">
         <v>200</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I27" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="6">
         <v>200</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -5770,60 +5763,60 @@
     </row>
     <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E29" s="6">
         <v>200</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I29" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E30" s="6">
         <v>200</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I30" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5884,276 +5877,276 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F2" s="6">
         <v>200</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F3" s="6">
         <v>200</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F4" s="6">
         <v>200</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F5" s="6">
         <v>200</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F6" s="6">
         <v>200</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F7" s="6">
         <v>200</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="F8" s="6">
         <v>200</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F9" s="6">
         <v>200</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="F10" s="6">
         <v>200</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="F11" s="6">
         <v>200</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -6196,42 +6189,42 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F2" s="6">
         <v>200</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -6245,7 +6238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEA9D88-B6E7-458C-A379-E2D27B1DAAD6}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -6278,303 +6271,303 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" s="16">
         <v>200</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" s="16">
         <v>200</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" s="16">
         <v>200</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="16">
         <v>200</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E6" s="16">
         <v>200</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7" s="16">
         <v>200</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="16">
         <v>200</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="16">
         <v>200</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="16">
         <v>200</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="16">
         <v>200</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
@@ -6585,553 +6578,553 @@
     </row>
     <row r="12" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E12" s="16">
         <v>200</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="16">
         <v>200</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="16">
         <v>200</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J14" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="18" t="s">
         <v>203</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E15" s="16">
         <v>200</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="16">
         <v>200</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E17" s="16">
         <v>200</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="16">
         <v>200</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="16">
         <v>200</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="16">
         <v>200</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="16">
         <v>200</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="16">
         <v>200</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="16">
         <v>200</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J23" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="18" t="s">
         <v>203</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E24" s="16">
         <v>200</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="16">
         <v>200</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E26" s="16">
         <v>200</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="16">
         <v>200</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E28" s="16">
         <v>200</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" s="16">
         <v>200</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E30" s="16">
         <v>200</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -7173,44 +7166,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6B414C-C71F-4F8A-BDB2-9629675CFF55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC67935-CA9B-4C6B-AC23-C7687C8555DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="242">
   <si>
     <t>case_name</t>
   </si>
@@ -564,6 +564,1060 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已取消任务_审核人通过审核评论</t>
+  </si>
+  <si>
+    <t>已取消任务_审核人通过审核评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"3",
+	"commit":"已取消任务_审核人通过审核评论",
+	"status":3,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消任务_执行人申请取消评论</t>
+  </si>
+  <si>
+    <t>已取消任务_执行人申请取消评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"2",
+	"commit":"已取消任务_执行人申请取消评论",
+	"status":8,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_审核人通过审核评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消任务_审核人同意取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_执行人申请取消评论</t>
+  </si>
+  <si>
+    <t>已完成任务_执行人申请取消评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"2",
+	"commit":"已完成任务_执行人申请取消评论",
+	"status":8,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_审核人驳回取消评论</t>
+  </si>
+  <si>
+    <t>已完成任务_审核人驳回取消评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"3",
+	"commit":"已完成任务_审核人驳回取消评论",
+	"status":5,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_执行人发起验收评论</t>
+  </si>
+  <si>
+    <t>已完成任务_执行人发起验收评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"4",
+	"commit":"已完成任务_执行人发起验收评论",
+	"status":4,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成任务_验收人驳回验收评论</t>
+  </si>
+  <si>
+    <t>已完成任务_验收人驳回验收评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"3",
+	"commit":"已完成任务_验收人驳回验收评论",
+	"status":5,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务已取消</t>
+  </si>
+  <si>
+    <t>验收完成</t>
+  </si>
+  <si>
+    <t>{
+	"user_id":"130751354",
+	"task_node":"3",
+	"commit":"已完成任务_审核人通过审核评论",
+	"status":3,
+	"file":"",
+	"photo":"",
+	"cc_user":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_进行中_任务列表显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_进行中_任务筛选_标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_进行中_任务筛选_角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_进行中_任务筛选_进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_进行中_任务筛选_时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_已完成_任务列表显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_已完成_任务筛选_标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_已完成_任务筛选_角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_已完成_任务筛选_进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务_已完成_任务筛选_时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建项目关联子任务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建项目关联子任务2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试项目子任务2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试项目子任务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试项目子任务1';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试项目子任务2';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事新建项目测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = "家里事任务流程_测试项目子任务1" UNION select uuid from task where title = "家里事任务流程_测试项目子任务2";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事新建项目测试';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"start_date":"2019-09-10",
+	"end_date":"2019-10-22",
+	"creator":"130751354",
+	"title":"家里事新建项目测试",
+	"type":"2",
+	"userIds":["1342","0139442436685131"],
+	"taskIds":[task_id1,task_id2]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事新建项目测试</t>
+  </si>
+  <si>
+    <t>家里事任务流程_测试项目子任务1</t>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = "家里事任务流程_测试项目子任务2" UNION select category from task where title = "家里事任务流程_测试项目子任务2";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除项目关联子任务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除项目关联子任务2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"projectId":project_id,
+	"userId":"130751354"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = "家里事任务流程_测试项目子任务1" UNION select category from task where title = "家里事任务流程_测试项目子任务1";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试项目子任务1';</t>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试项目子任务2';</t>
+  </si>
+  <si>
+    <t>项目子任务详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_审核人通过审核评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_任务详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_验收人驳回验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_验收人驳回验收评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_执行人发起验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_验收人通过验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已取消任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已取消任务_审核人通过审核评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已取消任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已取消任务_执行人申请取消评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已取消任务_审核人同意取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_执行人申请取消评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_审核人驳回取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目子任务_已完成任务_执行人发起验收评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"login_user":"130751354"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息通知流程到已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试消息通知流程到已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已取消任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试消息通知流程到已取消';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除消息通知流程到已取消任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['data']['list'][0]['content'][-20:-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['data']['list'][0]['content'][-19:-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['data']['list'][0]['content'][-21:-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['data']['list'][0]['content'][-14:-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息通知流程到已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试消息通知流程到已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试消息通知流程到已完成';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除消息通知流程到已完成任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已取消任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已取消任务_审核人同意取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_执行人申请取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_审核人驳回取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_执行人发起验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_验收人驳回验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息_已完成任务_验收人通过验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被审核人“王维权”通过审核，任务开始执行</t>
+  </si>
+  <si>
+    <t>login_user=15510548580801665&amp;page_num=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被审核人“王维权”通过审核，待您执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被执行人“王枫”申请取消，待您审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['data']['list'][0]['content'][-18:-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=1342&amp;page_num=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被审核人“王维权”审核取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=054155683935495559&amp;page_num=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被审核人“王维权”驳回取消任务，待您执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被执行人“王枫”发起验收，待您验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被验收人“赵劲雄”驳回验收，待您处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被验收人“赵劲雄”通过验收，任务已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建我的任务到执行中1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建我的任务到执行中2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试流程到执行中1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试流程到执行中2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除执行中任务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除执行中任务2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试流程到执行中1';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试流程到执行中2';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行中任务1_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行中任务2_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表_消息全部已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表_清空已读消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起人消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行人消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收人消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;progress=1&amp;status=0</t>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;date_way=1&amp;start_date=2019-09-01&amp;end_date=2019-10-20&amp;status=0</t>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;status=6</t>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;title=测试&amp;status=6</t>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;progress=4&amp;status=6</t>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;date_way=1&amp;start_date=2019-09-01&amp;end_date=2019-10-20&amp;status=6</t>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;title=测试&amp;status=0</t>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;role=2&amp;user_id=1342&amp;status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;role=1&amp;user_id=1342&amp;status=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试保存任务",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-20",
+	"type":"2",
+	"content":"家里事任务流程_测试保存任务",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":"",
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"15510548580801665",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
+		"user_name":"王枫"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试审核被驳回",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试审核被驳回",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":"",
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"15510548580801665",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
+		"user_name":"王枫"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试流程到已取消",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试流程到已取消",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":"",
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"15510548580801665",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
+		"user_name":"王枫"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试流程到已完成",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试流程到已完成",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":"",
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"15510548580801665",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
+		"user_name":"王枫"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试项目子任务1",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试项目子任务1",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":"",
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"15510548580801665",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
+		"user_name":"王枫"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试项目子任务2",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试项目子任务2",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":"",
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"15510548580801665",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
+		"user_name":"王枫"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试消息通知流程到已取消",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试消息通知流程到已取消",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":"",
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"15510548580801665",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
+		"user_name":"王枫"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试消息通知流程到已完成",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试消息通知流程到已完成",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":"",
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"15510548580801665",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
+		"user_name":"王枫"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试流程到执行中1",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试流程到执行中1",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":"",
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"15510548580801665",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
+		"user_name":"王枫"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试流程到执行中2",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试流程到执行中2",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":"",
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"15510548580801665",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
+		"user_name":"王枫"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reliys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasknodenum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>data[</t>
     </r>
@@ -615,7 +1669,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>2</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -701,7 +1755,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>2</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -733,1862 +1787,6 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已取消任务_审核人通过审核评论</t>
-  </si>
-  <si>
-    <t>已取消任务_审核人通过审核评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"user_id":"130751354",
-	"task_node":"3",
-	"commit":"已取消任务_审核人通过审核评论",
-	"status":3,
-	"file":"",
-	"photo":"",
-	"cc_user":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已取消任务_执行人申请取消评论</t>
-  </si>
-  <si>
-    <t>已取消任务_执行人申请取消评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"user_id":"130751354",
-	"task_node":"2",
-	"commit":"已取消任务_执行人申请取消评论",
-	"status":8,
-	"file":"",
-	"photo":"",
-	"cc_user":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'task_node'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务_审核人通过审核评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已取消任务_审核人同意取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务_审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务_执行人申请取消评论</t>
-  </si>
-  <si>
-    <t>已完成任务_执行人申请取消评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"user_id":"130751354",
-	"task_node":"2",
-	"commit":"已完成任务_执行人申请取消评论",
-	"status":8,
-	"file":"",
-	"photo":"",
-	"cc_user":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'commit'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务_审核人驳回取消评论</t>
-  </si>
-  <si>
-    <t>已完成任务_审核人驳回取消评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"user_id":"130751354",
-	"task_node":"3",
-	"commit":"已完成任务_审核人驳回取消评论",
-	"status":5,
-	"file":"",
-	"photo":"",
-	"cc_user":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'commit'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'task_node'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务_执行人发起验收评论</t>
-  </si>
-  <si>
-    <t>已完成任务_执行人发起验收评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"user_id":"130751354",
-	"task_node":"4",
-	"commit":"已完成任务_执行人发起验收评论",
-	"status":4,
-	"file":"",
-	"photo":"",
-	"cc_user":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'commit'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'task_node'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成任务_验收人驳回验收评论</t>
-  </si>
-  <si>
-    <t>已完成任务_验收人驳回验收评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"user_id":"130751354",
-	"task_node":"3",
-	"commit":"已完成任务_验收人驳回验收评论",
-	"status":5,
-	"file":"",
-	"photo":"",
-	"cc_user":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'commit'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'task_node'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务已取消</t>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'commit'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'task_node'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'commit'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>data[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'data'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'reliys'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'task_node'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收完成</t>
-  </si>
-  <si>
-    <t>{
-	"user_id":"130751354",
-	"task_node":"3",
-	"commit":"已完成任务_审核人通过审核评论",
-	"status":3,
-	"file":"",
-	"photo":"",
-	"cc_user":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的任务_进行中_任务列表显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的任务_进行中_任务筛选_标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的任务_进行中_任务筛选_角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的任务_进行中_任务筛选_进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的任务_进行中_任务筛选_时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的任务_已完成_任务列表显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的任务_已完成_任务筛选_标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的任务_已完成_任务筛选_角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的任务_已完成_任务筛选_进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的任务_已完成_任务筛选_时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建项目关联子任务1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建项目关联子任务2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事任务流程_测试项目子任务2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事任务流程_测试项目子任务1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试项目子任务1';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试项目子任务2';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/project/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事新建项目测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = "家里事任务流程_测试项目子任务1" UNION select uuid from task where title = "家里事任务流程_测试项目子任务2";</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/project/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事新建项目测试';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"start_date":"2019-09-10",
-	"end_date":"2019-10-22",
-	"creator":"130751354",
-	"title":"家里事新建项目测试",
-	"type":"2",
-	"userIds":["1342","0139442436685131"],
-	"taskIds":[task_id1,task_id2]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/project/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事新建项目测试</t>
-  </si>
-  <si>
-    <t>家里事任务流程_测试项目子任务1</t>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = "家里事任务流程_测试项目子任务2" UNION select category from task where title = "家里事任务流程_测试项目子任务2";</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除项目关联子任务1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除项目关联子任务2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"projectId":project_id,
-	"userId":"130751354"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = "家里事任务流程_测试项目子任务1" UNION select category from task where title = "家里事任务流程_测试项目子任务1";</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试项目子任务1';</t>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试项目子任务2';</t>
-  </si>
-  <si>
-    <t>项目子任务详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_审核人通过审核评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_任务详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_验收人驳回验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_验收人驳回验收评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_执行人发起验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_验收人通过验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已取消任务_审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已取消任务_审核人通过审核评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已取消任务_执行人申请取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已取消任务_执行人申请取消评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已取消任务_审核人同意取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_执行人申请取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_执行人申请取消评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_审核人驳回取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目子任务_已完成任务_执行人发起验收评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/notice/reading</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"login_user":"130751354"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/notice/empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息通知流程到已取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事任务流程_测试消息通知流程到已取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/notices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已取消任务_审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=130751354&amp;page_num=1&amp;page_size=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试消息通知流程到已取消';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除消息通知流程到已取消任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data['data']['list'][0]['content'][-20:-1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data['data']['list'][0]['content'][-19:-1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data['data']['list'][0]['content'][-21:-1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data['data']['list'][0]['content'][-14:-1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息通知流程到已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事任务流程_测试消息通知流程到已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试消息通知流程到已完成';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除消息通知流程到已完成任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已取消任务_执行人申请取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已取消任务_审核人同意取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已完成任务_审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已完成任务_执行人申请取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已完成任务_审核人驳回取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已完成任务_执行人发起验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已完成任务_验收人驳回验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息_已完成任务_验收人通过验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被审核人“王维权”通过审核，任务开始执行</t>
-  </si>
-  <si>
-    <t>login_user=15510548580801665&amp;page_num=1&amp;page_size=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被审核人“王维权”通过审核，待您执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被执行人“王枫”申请取消，待您审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data['data']['list'][0]['content'][-18:-1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=1342&amp;page_num=1&amp;page_size=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被审核人“王维权”审核取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=054155683935495559&amp;page_num=1&amp;page_size=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被审核人“王维权”驳回取消任务，待您执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被执行人“王枫”发起验收，待您验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被验收人“赵劲雄”驳回验收，待您处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被验收人“赵劲雄”通过验收，任务已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建我的任务到执行中1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建我的任务到执行中2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事任务流程_测试流程到执行中1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事任务流程_测试流程到执行中2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除执行中任务1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除执行中任务2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试流程到执行中1';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试流程到执行中2';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行中任务1_审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行中任务2_审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表_消息全部已读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表_清空已读消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起人消息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行人消息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人消息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收人消息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试保存任务",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-20",
-	"type":"2",
-	"content":"家里事任务流程_测试保存任务",
-	"creator":"130751354",
-	"auditor":"1342",
-	"executor":"15510548580801665",
-	"acceptor":"054155683935495559",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试审核被驳回",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试审核被驳回",
-	"creator":"130751354",
-	"auditor":"1342",
-	"executor":"15510548580801665",
-	"acceptor":"054155683935495559",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试流程到已取消",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试流程到已取消",
-	"creator":"130751354",
-	"auditor":"1342",
-	"executor":"15510548580801665",
-	"acceptor":"054155683935495559",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试流程到已完成",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试流程到已完成",
-	"creator":"130751354",
-	"auditor":"1342",
-	"executor":"15510548580801665",
-	"acceptor":"054155683935495559",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试项目子任务1",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试项目子任务1",
-	"creator":"130751354",
-	"auditor":"1342",
-	"executor":"15510548580801665",
-	"acceptor":"054155683935495559",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试项目子任务2",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试项目子任务2",
-	"creator":"130751354",
-	"auditor":"1342",
-	"executor":"15510548580801665",
-	"acceptor":"054155683935495559",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试消息通知流程到已取消",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试消息通知流程到已取消",
-	"creator":"130751354",
-	"auditor":"1342",
-	"executor":"15510548580801665",
-	"acceptor":"054155683935495559",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试消息通知流程到已完成",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试消息通知流程到已完成",
-	"creator":"130751354",
-	"auditor":"1342",
-	"executor":"15510548580801665",
-	"acceptor":"054155683935495559",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试流程到执行中1",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试流程到执行中1",
-	"creator":"130751354",
-	"auditor":"1342",
-	"executor":"15510548580801665",
-	"acceptor":"054155683935495559",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试流程到执行中2",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试流程到执行中2",
-	"creator":"130751354",
-	"auditor":"1342",
-	"executor":"15510548580801665",
-	"acceptor":"054155683935495559",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;status=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;progress=1&amp;status=0</t>
-  </si>
-  <si>
-    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;date_way=1&amp;start_date=2019-09-01&amp;end_date=2019-10-20&amp;status=0</t>
-  </si>
-  <si>
-    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;status=6</t>
-  </si>
-  <si>
-    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;title=测试&amp;status=6</t>
-  </si>
-  <si>
-    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;progress=4&amp;status=6</t>
-  </si>
-  <si>
-    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;date_way=1&amp;start_date=2019-09-01&amp;end_date=2019-10-20&amp;status=6</t>
-  </si>
-  <si>
-    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;title=测试&amp;status=0</t>
-  </si>
-  <si>
-    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;role=2&amp;user_id=1342&amp;status=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;role=1&amp;user_id=1342&amp;status=6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3016,7 +2214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3063,13 +2261,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -3092,13 +2290,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -3121,13 +2319,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -3150,13 +2348,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -3179,13 +2377,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -3208,13 +2406,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -3237,13 +2435,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -3266,13 +2464,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -3295,13 +2493,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -3324,13 +2522,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -3369,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A6138-0A61-47C1-A7E8-238944BB7D5F}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3418,7 +2616,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -3444,7 +2642,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -3470,7 +2668,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -3496,7 +2694,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -3516,13 +2714,13 @@
     </row>
     <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -3537,18 +2735,18 @@
         <v>29</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -3563,18 +2761,18 @@
         <v>29</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -3589,18 +2787,18 @@
         <v>29</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -3615,18 +2813,18 @@
         <v>29</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -3641,18 +2839,18 @@
         <v>29</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -3667,7 +2865,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3681,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7693FB1-C9BA-4480-888D-56CE715BB47D}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3729,6 +2927,21 @@
       <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="2" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3790,13 +3003,13 @@
     </row>
     <row r="4" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -3811,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
         <v>69</v>
@@ -3873,13 +3086,13 @@
         <v>5</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -3970,13 +3183,13 @@
         <v>6</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -3984,7 +3197,7 @@
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -4008,12 +3221,12 @@
         <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
@@ -4037,7 +3250,7 @@
         <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4067,13 +3280,13 @@
         <v>5</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>78</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -4110,13 +3323,13 @@
     </row>
     <row r="14" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -4131,7 +3344,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
         <v>68</v>
@@ -4164,13 +3377,13 @@
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="M15" s="10" t="s">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -4207,13 +3420,13 @@
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -4228,7 +3441,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
         <v>68</v>
@@ -4261,13 +3474,13 @@
         <v>8</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -4275,7 +3488,7 @@
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -4329,13 +3542,13 @@
         <v>9</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -4343,7 +3556,7 @@
     </row>
     <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
@@ -4397,13 +3610,13 @@
         <v>3</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -4440,13 +3653,13 @@
     </row>
     <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -4461,7 +3674,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I24" t="s">
         <v>69</v>
@@ -4494,13 +3707,13 @@
         <v>8</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -4537,13 +3750,13 @@
     </row>
     <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -4558,7 +3771,7 @@
         <v>29</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s">
         <v>69</v>
@@ -4591,13 +3804,13 @@
         <v>5</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -4634,13 +3847,13 @@
     </row>
     <row r="30" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -4655,7 +3868,7 @@
         <v>29</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s">
         <v>69</v>
@@ -4688,13 +3901,13 @@
         <v>4</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="N31">
         <v>3</v>
@@ -4702,13 +3915,13 @@
     </row>
     <row r="32" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -4723,7 +3936,7 @@
         <v>29</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I32" t="s">
         <v>69</v>
@@ -4741,6 +3954,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4792,13 +4006,13 @@
     </row>
     <row r="2" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -4813,7 +4027,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="4"/>
@@ -4830,8 +4044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9469492-EF4E-4896-98B9-CA5BD716B38C}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4843,9 +4057,9 @@
     <col min="8" max="8" width="36.625" customWidth="1"/>
     <col min="9" max="9" width="64.125" customWidth="1"/>
     <col min="10" max="10" width="30.125" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="36.25" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="33.25" customWidth="1"/>
     <col min="14" max="14" width="20.625" customWidth="1"/>
     <col min="16" max="16" width="28.875" customWidth="1"/>
   </cols>
@@ -4873,10 +4087,10 @@
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>72</v>
@@ -4894,7 +4108,7 @@
         <v>76</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>30</v>
@@ -4902,10 +4116,10 @@
     </row>
     <row r="2" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -4920,15 +4134,15 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -4946,24 +4160,24 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -4978,15 +4192,15 @@
         <v>29</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -5004,19 +4218,19 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>106</v>
+        <v>241</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -5024,7 +4238,7 @@
     </row>
     <row r="6" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -5048,18 +4262,18 @@
         <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -5074,15 +4288,15 @@
         <v>29</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -5100,19 +4314,19 @@
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -5120,7 +4334,7 @@
     </row>
     <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -5144,12 +4358,12 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -5173,12 +4387,12 @@
         <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -5196,19 +4410,19 @@
         <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -5216,7 +4430,7 @@
     </row>
     <row r="12" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -5234,18 +4448,18 @@
         <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -5269,18 +4483,18 @@
         <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -5295,15 +4509,15 @@
         <v>29</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -5321,19 +4535,19 @@
         <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="M15" s="10" t="s">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -5341,7 +4555,7 @@
     </row>
     <row r="16" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -5365,18 +4579,18 @@
         <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -5391,15 +4605,15 @@
         <v>29</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -5417,19 +4631,19 @@
         <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="J18">
         <v>8</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -5437,7 +4651,7 @@
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -5461,12 +4675,12 @@
         <v>62</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -5484,19 +4698,19 @@
         <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="J20">
         <v>9</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -5504,7 +4718,7 @@
     </row>
     <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
@@ -5528,12 +4742,12 @@
         <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -5551,19 +4765,19 @@
         <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -5571,7 +4785,7 @@
     </row>
     <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -5595,18 +4809,18 @@
         <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -5621,15 +4835,15 @@
         <v>29</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I24" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -5647,19 +4861,19 @@
         <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J25">
         <v>8</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -5667,7 +4881,7 @@
     </row>
     <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
@@ -5691,18 +4905,18 @@
         <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -5717,15 +4931,15 @@
         <v>29</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -5743,19 +4957,19 @@
         <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -5763,7 +4977,7 @@
     </row>
     <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
@@ -5787,18 +5001,18 @@
         <v>57</v>
       </c>
       <c r="I29" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -5813,10 +5027,10 @@
         <v>29</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5995,7 +5209,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -6007,7 +5221,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F6" s="6">
         <v>200</v>
@@ -6021,7 +5235,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -6033,7 +5247,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F7" s="6">
         <v>200</v>
@@ -6047,7 +5261,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -6059,7 +5273,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F8" s="6">
         <v>200</v>
@@ -6073,7 +5287,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -6085,7 +5299,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F9" s="6">
         <v>200</v>
@@ -6099,7 +5313,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -6111,7 +5325,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="F10" s="6">
         <v>200</v>
@@ -6125,7 +5339,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -6137,7 +5351,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F11" s="6">
         <v>200</v>
@@ -6203,19 +5417,19 @@
     </row>
     <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F2" s="6">
         <v>200</v>
@@ -6286,21 +5500,21 @@
         <v>19</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>9</v>
@@ -6317,13 +5531,13 @@
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>9</v>
@@ -6340,7 +5554,7 @@
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>36</v>
@@ -6364,18 +5578,18 @@
         <v>61</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>5</v>
@@ -6390,15 +5604,15 @@
         <v>29</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>36</v>
@@ -6422,12 +5636,12 @@
         <v>57</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>36</v>
@@ -6451,18 +5665,18 @@
         <v>59</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>5</v>
@@ -6477,21 +5691,21 @@
         <v>29</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>5</v>
@@ -6506,21 +5720,21 @@
         <v>29</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>5</v>
@@ -6535,21 +5749,21 @@
         <v>29</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>5</v>
@@ -6564,10 +5778,10 @@
         <v>29</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
@@ -6578,7 +5792,7 @@
     </row>
     <row r="12" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>36</v>
@@ -6602,18 +5816,18 @@
         <v>61</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>5</v>
@@ -6628,21 +5842,21 @@
         <v>29</v>
       </c>
       <c r="J13" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>5</v>
@@ -6657,15 +5871,15 @@
         <v>29</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>36</v>
@@ -6689,18 +5903,18 @@
         <v>55</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>5</v>
@@ -6715,15 +5929,15 @@
         <v>29</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>36</v>
@@ -6747,18 +5961,18 @@
         <v>62</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>5</v>
@@ -6773,21 +5987,21 @@
         <v>29</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>5</v>
@@ -6802,21 +6016,21 @@
         <v>29</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>5</v>
@@ -6831,21 +6045,21 @@
         <v>29</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>5</v>
@@ -6860,21 +6074,21 @@
         <v>29</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>5</v>
@@ -6889,21 +6103,21 @@
         <v>29</v>
       </c>
       <c r="J22" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>5</v>
@@ -6918,15 +6132,15 @@
         <v>29</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>36</v>
@@ -6950,18 +6164,18 @@
         <v>55</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>5</v>
@@ -6976,15 +6190,15 @@
         <v>29</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>36</v>
@@ -7008,18 +6222,18 @@
         <v>56</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>5</v>
@@ -7034,15 +6248,15 @@
         <v>29</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>36</v>
@@ -7066,18 +6280,18 @@
         <v>57</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>5</v>
@@ -7092,15 +6306,15 @@
         <v>29</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>36</v>
@@ -7124,7 +6338,7 @@
         <v>58</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC67935-CA9B-4C6B-AC23-C7687C8555DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA762C0-F712-4503-9BD7-75032A14D5A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="256">
   <si>
     <t>case_name</t>
   </si>
@@ -544,10 +544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审核人驳回审核评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select uuid from task where title = '家里事任务流程_测试保存任务';</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1789,12 +1785,160 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>验收并审测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试验收并审",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试验收并审",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":"",
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"15510548580801665",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
+		"user_name":"王枫"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	},
+	{
+		"node_number":4,
+		"user_id":"0139442436685131",
+		"user_name":"刘荣",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg"
+	}
+		]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除验收并审任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试验收并审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试验收并审';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务已发起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = "家里事任务流程_测试审核被驳回" UNION select flow_id from task where title = "家里事任务流程_测试审核被驳回";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试审核被驳回",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试审核被驳回",
+	"audit":"1",
+	"result":"",
+	"result_file":"",
+	"result_photo":"",
+	"target_photo":"",
+	"target_file":"",
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"15510548580801665",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
+		"user_name":"王枫"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		],
+	"uuid":uuid,
+	"flow_id":flow_id,
+	"nowNun":"1",
+	"status":"5"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改后再次发起审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收并审任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收并审任务_执行人发起验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收并审任务_验收人1通过验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收并审任务_验收人2通过验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"0139442436685131",
+	"operation_type":"1",
+	"commit":"所有工作已完成，验收通过"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1857,6 +2001,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0451A5"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1878,7 +2029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1930,6 +2081,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2261,13 +2415,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2290,13 +2444,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2319,13 +2473,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -2348,13 +2502,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -2377,13 +2531,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -2406,13 +2560,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -2435,13 +2589,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -2464,13 +2618,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -2493,13 +2647,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -2522,13 +2676,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -2565,10 +2719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A6138-0A61-47C1-A7E8-238944BB7D5F}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2616,7 +2770,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -2642,7 +2796,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2668,7 +2822,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -2694,7 +2848,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -2714,13 +2868,13 @@
     </row>
     <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -2735,18 +2889,18 @@
         <v>29</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2761,18 +2915,18 @@
         <v>29</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -2787,18 +2941,18 @@
         <v>29</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -2813,18 +2967,18 @@
         <v>29</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -2839,18 +2993,18 @@
         <v>29</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -2865,7 +3019,33 @@
         <v>29</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6">
+        <v>200</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2879,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7693FB1-C9BA-4480-888D-56CE715BB47D}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2928,19 +3108,19 @@
         <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -2980,7 +3160,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2995,7 +3175,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
         <v>67</v>
@@ -3003,16 +3183,13 @@
     </row>
     <row r="4" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6">
         <v>200</v>
@@ -3023,22 +3200,35 @@
       <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="H4"/>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -3052,8 +3242,8 @@
       <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>58</v>
+      <c r="H5" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="I5" t="s">
         <v>69</v>
@@ -3061,13 +3251,16 @@
     </row>
     <row r="6" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E6" s="6">
         <v>200</v>
@@ -3078,29 +3271,16 @@
       <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6"/>
+      <c r="H6" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="I6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -3124,12 +3304,12 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>252</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
@@ -3153,7 +3333,7 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3177,19 +3357,19 @@
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -3197,13 +3377,13 @@
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -3217,25 +3397,22 @@
       <c r="G10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>61</v>
+      <c r="H10" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E11" s="6">
         <v>200</v>
@@ -3246,11 +3423,24 @@
       <c r="G11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="H11"/>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>245</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3280,13 +3470,13 @@
         <v>5</v>
       </c>
       <c r="K12" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3294,13 +3484,13 @@
     </row>
     <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -3314,25 +3504,23 @@
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="H13"/>
       <c r="I13" t="s">
-        <v>68</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E14" s="6">
         <v>200</v>
@@ -3343,22 +3531,38 @@
       <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H14"/>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E15" s="6">
         <v>200</v>
@@ -3369,35 +3573,22 @@
       <c r="G15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H15"/>
+      <c r="H15" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" t="s">
         <v>68</v>
       </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
     </row>
     <row r="16" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -3411,8 +3602,8 @@
       <c r="G16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>55</v>
+      <c r="H16" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="I16" t="s">
         <v>68</v>
@@ -3420,16 +3611,13 @@
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E17" s="6">
         <v>200</v>
@@ -3440,22 +3628,38 @@
       <c r="G17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="H17"/>
       <c r="I17" t="s">
         <v>68</v>
       </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E18" s="6">
         <v>200</v>
@@ -3466,35 +3670,22 @@
       <c r="G18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H18"/>
+      <c r="H18" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="I18" t="s">
         <v>68</v>
       </c>
-      <c r="J18">
-        <v>8</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -3508,8 +3699,8 @@
       <c r="G19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>62</v>
+      <c r="H19" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="I19" t="s">
         <v>68</v>
@@ -3539,30 +3730,30 @@
         <v>68</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="L20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>241</v>
-      </c>
       <c r="N20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -3576,22 +3767,25 @@
       <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>61</v>
+      <c r="H21" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E22" s="6">
         <v>200</v>
@@ -3602,35 +3796,22 @@
       <c r="G22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H22"/>
+      <c r="H22" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="I22" t="s">
         <v>69</v>
       </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
     </row>
     <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -3644,8 +3825,8 @@
       <c r="G23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>55</v>
+      <c r="H23" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="I23" t="s">
         <v>69</v>
@@ -3653,16 +3834,13 @@
     </row>
     <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E24" s="6">
         <v>200</v>
@@ -3673,22 +3851,38 @@
       <c r="G24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="H24"/>
       <c r="I24" t="s">
         <v>69</v>
       </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E25" s="6">
         <v>200</v>
@@ -3699,35 +3893,22 @@
       <c r="G25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H25"/>
+      <c r="H25" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="I25" t="s">
         <v>69</v>
       </c>
-      <c r="J25">
-        <v>8</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="N25">
-        <v>3</v>
-      </c>
     </row>
     <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -3741,8 +3922,8 @@
       <c r="G26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>56</v>
+      <c r="H26" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="I26" t="s">
         <v>69</v>
@@ -3750,16 +3931,13 @@
     </row>
     <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E27" s="6">
         <v>200</v>
@@ -3770,22 +3948,38 @@
       <c r="G27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="H27"/>
       <c r="I27" t="s">
         <v>69</v>
       </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E28" s="6">
         <v>200</v>
@@ -3796,35 +3990,22 @@
       <c r="G28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H28"/>
+      <c r="H28" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="I28" t="s">
         <v>69</v>
       </c>
-      <c r="J28">
-        <v>5</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="N28">
-        <v>3</v>
-      </c>
     </row>
     <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -3838,25 +4019,22 @@
       <c r="G29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>57</v>
+      <c r="H29" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="I29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E30" s="6">
         <v>200</v>
@@ -3867,22 +4045,38 @@
       <c r="G30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="H30"/>
       <c r="I30" t="s">
         <v>69</v>
       </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E31" s="6">
         <v>200</v>
@@ -3893,38 +4087,22 @@
       <c r="G31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H31"/>
+      <c r="H31" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="I31" t="s">
         <v>69</v>
       </c>
-      <c r="J31">
-        <v>4</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
     </row>
     <row r="32" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E32" s="6">
         <v>200</v>
@@ -3935,22 +4113,279 @@
       <c r="G32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="H32"/>
       <c r="I32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6">
+        <v>200</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="6">
+        <v>200</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6">
+        <v>200</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="6">
+        <v>200</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="6">
+        <v>200</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6">
+        <v>200</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="6">
+        <v>200</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="6">
+        <v>200</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4006,28 +4441,28 @@
     </row>
     <row r="2" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6">
+        <v>200</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6">
-        <v>200</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>123</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="4"/>
@@ -4044,8 +4479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9469492-EF4E-4896-98B9-CA5BD716B38C}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4087,10 +4522,10 @@
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>72</v>
@@ -4108,7 +4543,7 @@
         <v>76</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>30</v>
@@ -4116,10 +4551,10 @@
     </row>
     <row r="2" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -4134,15 +4569,15 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -4160,24 +4595,24 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -4192,15 +4627,15 @@
         <v>29</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -4218,19 +4653,19 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -4238,7 +4673,7 @@
     </row>
     <row r="6" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -4262,18 +4697,18 @@
         <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -4288,15 +4723,15 @@
         <v>29</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -4314,19 +4749,19 @@
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -4334,7 +4769,7 @@
     </row>
     <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -4358,12 +4793,12 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -4387,12 +4822,12 @@
         <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -4410,19 +4845,19 @@
         <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -4430,7 +4865,7 @@
     </row>
     <row r="12" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -4448,18 +4883,18 @@
         <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -4483,18 +4918,18 @@
         <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -4509,15 +4944,15 @@
         <v>29</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -4535,19 +4970,19 @@
         <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -4555,7 +4990,7 @@
     </row>
     <row r="16" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -4579,18 +5014,18 @@
         <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -4605,15 +5040,15 @@
         <v>29</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -4631,19 +5066,19 @@
         <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J18">
         <v>8</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -4651,7 +5086,7 @@
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -4675,12 +5110,12 @@
         <v>62</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -4698,19 +5133,19 @@
         <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J20">
         <v>9</v>
       </c>
       <c r="K20" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -4718,7 +5153,7 @@
     </row>
     <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
@@ -4742,12 +5177,12 @@
         <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -4765,19 +5200,19 @@
         <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
       <c r="K22" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -4785,7 +5220,7 @@
     </row>
     <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -4809,18 +5244,18 @@
         <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -4835,15 +5270,15 @@
         <v>29</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -4861,19 +5296,19 @@
         <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J25">
         <v>8</v>
       </c>
       <c r="K25" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -4881,7 +5316,7 @@
     </row>
     <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
@@ -4905,18 +5340,18 @@
         <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -4931,15 +5366,15 @@
         <v>29</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -4957,19 +5392,19 @@
         <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
       <c r="K28" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -4977,7 +5412,7 @@
     </row>
     <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
@@ -5001,18 +5436,18 @@
         <v>57</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -5027,10 +5462,10 @@
         <v>29</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5060,10 +5495,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9E7A1F-7893-4CEF-BCBF-13402B2B9748}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5117,7 +5552,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="6">
         <v>200</v>
@@ -5209,7 +5644,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -5221,7 +5656,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="6">
         <v>200</v>
@@ -5235,7 +5670,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5247,7 +5682,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="6">
         <v>200</v>
@@ -5261,7 +5696,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -5273,7 +5708,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8" s="6">
         <v>200</v>
@@ -5287,7 +5722,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -5299,7 +5734,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="6">
         <v>200</v>
@@ -5313,7 +5748,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -5325,7 +5760,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F10" s="6">
         <v>200</v>
@@ -5339,7 +5774,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -5351,7 +5786,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F11" s="6">
         <v>200</v>
@@ -5360,6 +5795,32 @@
         <v>25</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="6">
+        <v>200</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5417,19 +5878,19 @@
     </row>
     <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
         <v>124</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>125</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>126</v>
       </c>
       <c r="F2" s="6">
         <v>200</v>
@@ -5500,21 +5961,21 @@
         <v>19</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>9</v>
@@ -5531,13 +5992,13 @@
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>9</v>
@@ -5554,7 +6015,7 @@
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>36</v>
@@ -5578,18 +6039,18 @@
         <v>61</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>5</v>
@@ -5604,15 +6065,15 @@
         <v>29</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>36</v>
@@ -5636,12 +6097,12 @@
         <v>57</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>36</v>
@@ -5665,18 +6126,18 @@
         <v>59</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>5</v>
@@ -5691,21 +6152,21 @@
         <v>29</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>5</v>
@@ -5720,21 +6181,21 @@
         <v>29</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>5</v>
@@ -5749,21 +6210,21 @@
         <v>29</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>5</v>
@@ -5778,10 +6239,10 @@
         <v>29</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
@@ -5792,7 +6253,7 @@
     </row>
     <row r="12" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>36</v>
@@ -5816,18 +6277,18 @@
         <v>61</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>5</v>
@@ -5842,21 +6303,21 @@
         <v>29</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>5</v>
@@ -5871,15 +6332,15 @@
         <v>29</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>36</v>
@@ -5903,18 +6364,18 @@
         <v>55</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>5</v>
@@ -5929,15 +6390,15 @@
         <v>29</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>36</v>
@@ -5961,18 +6422,18 @@
         <v>62</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>5</v>
@@ -5987,21 +6448,21 @@
         <v>29</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>5</v>
@@ -6016,21 +6477,21 @@
         <v>29</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>5</v>
@@ -6045,21 +6506,21 @@
         <v>29</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>5</v>
@@ -6074,21 +6535,21 @@
         <v>29</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>5</v>
@@ -6103,21 +6564,21 @@
         <v>29</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>5</v>
@@ -6132,15 +6593,15 @@
         <v>29</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>36</v>
@@ -6164,18 +6625,18 @@
         <v>55</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>5</v>
@@ -6190,15 +6651,15 @@
         <v>29</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>36</v>
@@ -6222,18 +6683,18 @@
         <v>56</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>5</v>
@@ -6248,15 +6709,15 @@
         <v>29</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>36</v>
@@ -6280,18 +6741,18 @@
         <v>57</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>5</v>
@@ -6306,15 +6767,15 @@
         <v>29</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>36</v>
@@ -6338,7 +6799,7 @@
         <v>58</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA762C0-F712-4503-9BD7-75032A14D5A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9358C71-6030-4E1D-A425-66E52F6A0387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasklist" sheetId="1" r:id="rId1"/>
@@ -320,14 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建任务流程到已取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建任务流程到已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除已取消的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,10 +341,6 @@
 	"operation_type":"0",
 	"commit":"驳回"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建任务流程到审核被驳回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -744,14 +732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建项目关联子任务1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建项目关联子任务2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>家里事任务流程_测试项目子任务2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -941,10 +921,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消息通知流程到已取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>家里事任务流程_测试消息通知流程到已取消</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -993,10 +969,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消息通知流程到已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>家里事任务流程_测试消息通知流程到已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1085,14 +1057,6 @@
   </si>
   <si>
     <t>被验收人“赵劲雄”通过验收，任务已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建我的任务到执行中1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建我的任务到执行中2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1786,10 +1750,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验收并审测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 	"title":"家里事任务流程_测试验收并审",
 	"start_date":"2019-09-10",
@@ -1931,6 +1891,46 @@
 	"operation_type":"1",
 	"commit":"所有工作已完成，验收通过"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_流程到审核被驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_流程到已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_流程到已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_项目关联子任务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_项目关联子任务2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_消息通知流程到已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_消息通知流程到已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_我的任务到执行中1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_我的任务到执行中2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_验收并审任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2415,13 +2415,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2444,13 +2444,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2473,13 +2473,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -2502,13 +2502,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -2531,13 +2531,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -2560,13 +2560,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -2618,13 +2618,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -2647,13 +2647,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -2676,13 +2676,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -2721,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A6138-0A61-47C1-A7E8-238944BB7D5F}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2770,7 +2770,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -2785,18 +2785,18 @@
         <v>29</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2811,18 +2811,18 @@
         <v>29</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -2837,18 +2837,18 @@
         <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -2863,18 +2863,18 @@
         <v>29</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -2889,18 +2889,18 @@
         <v>29</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2915,18 +2915,18 @@
         <v>29</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -2941,18 +2941,18 @@
         <v>29</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -2967,18 +2967,18 @@
         <v>29</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -2993,18 +2993,18 @@
         <v>29</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -3019,18 +3019,18 @@
         <v>29</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -3045,7 +3045,7 @@
         <v>29</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3059,7 +3059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7693FB1-C9BA-4480-888D-56CE715BB47D}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3102,37 +3102,37 @@
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -3146,21 +3146,21 @@
         <v>29</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -3175,15 +3175,15 @@
         <v>29</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -3202,19 +3202,19 @@
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J4">
         <v>9</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -3222,13 +3222,13 @@
     </row>
     <row r="5" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -3243,21 +3243,21 @@
         <v>29</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -3272,21 +3272,21 @@
         <v>29</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -3301,21 +3301,21 @@
         <v>29</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -3330,15 +3330,15 @@
         <v>29</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -3357,19 +3357,19 @@
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="J9">
         <v>4</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -3377,13 +3377,13 @@
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -3398,15 +3398,15 @@
         <v>29</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -3425,19 +3425,19 @@
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -3464,19 +3464,19 @@
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3484,13 +3484,13 @@
     </row>
     <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="12"/>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="14" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -3533,19 +3533,19 @@
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3553,13 +3553,13 @@
     </row>
     <row r="15" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -3574,21 +3574,21 @@
         <v>29</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -3603,15 +3603,15 @@
         <v>29</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -3630,19 +3630,19 @@
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J17">
         <v>3</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -3650,13 +3650,13 @@
     </row>
     <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -3671,21 +3671,21 @@
         <v>29</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -3700,15 +3700,15 @@
         <v>29</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -3727,19 +3727,19 @@
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J20">
         <v>8</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -3747,13 +3747,13 @@
     </row>
     <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -3768,21 +3768,21 @@
         <v>29</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -3797,21 +3797,21 @@
         <v>29</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -3826,15 +3826,15 @@
         <v>29</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -3853,19 +3853,19 @@
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J24">
         <v>3</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -3873,13 +3873,13 @@
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -3894,21 +3894,21 @@
         <v>29</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -3923,15 +3923,15 @@
         <v>29</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -3950,19 +3950,19 @@
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J27">
         <v>8</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N27">
         <v>3</v>
@@ -3970,13 +3970,13 @@
     </row>
     <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -3991,21 +3991,21 @@
         <v>29</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -4020,15 +4020,15 @@
         <v>29</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -4047,19 +4047,19 @@
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J30">
         <v>5</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -4067,13 +4067,13 @@
     </row>
     <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -4088,15 +4088,15 @@
         <v>29</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -4115,19 +4115,19 @@
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J32">
         <v>4</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N32">
         <v>3</v>
@@ -4135,13 +4135,13 @@
     </row>
     <row r="33" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -4156,21 +4156,21 @@
         <v>29</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -4185,15 +4185,15 @@
         <v>29</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
@@ -4212,19 +4212,19 @@
       </c>
       <c r="H35"/>
       <c r="I35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J35">
         <v>5</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -4232,13 +4232,13 @@
     </row>
     <row r="36" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -4253,21 +4253,21 @@
         <v>29</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -4282,15 +4282,15 @@
         <v>29</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
@@ -4309,19 +4309,19 @@
       </c>
       <c r="H38"/>
       <c r="I38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J38">
         <v>6</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N38">
         <v>4</v>
@@ -4329,13 +4329,13 @@
     </row>
     <row r="39" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -4350,21 +4350,21 @@
         <v>29</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I39" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -4379,10 +4379,10 @@
         <v>29</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I40" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4441,14 +4441,14 @@
     </row>
     <row r="2" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="4"/>
@@ -4522,28 +4522,28 @@
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>30</v>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="2" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -4569,15 +4569,15 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -4595,24 +4595,24 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -4627,15 +4627,15 @@
         <v>29</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -4653,19 +4653,19 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -4673,13 +4673,13 @@
     </row>
     <row r="6" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -4694,21 +4694,21 @@
         <v>29</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -4723,15 +4723,15 @@
         <v>29</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -4749,19 +4749,19 @@
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -4769,13 +4769,13 @@
     </row>
     <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -4790,21 +4790,21 @@
         <v>29</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -4819,15 +4819,15 @@
         <v>29</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -4845,19 +4845,19 @@
         <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="12" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -4883,24 +4883,24 @@
         <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -4915,21 +4915,21 @@
         <v>29</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -4944,15 +4944,15 @@
         <v>29</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -4970,19 +4970,19 @@
         <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -4990,13 +4990,13 @@
     </row>
     <row r="16" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -5011,21 +5011,21 @@
         <v>29</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -5040,15 +5040,15 @@
         <v>29</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -5066,19 +5066,19 @@
         <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J18">
         <v>8</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -5086,13 +5086,13 @@
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -5107,15 +5107,15 @@
         <v>29</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -5133,19 +5133,19 @@
         <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J20">
         <v>9</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -5153,13 +5153,13 @@
     </row>
     <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -5174,15 +5174,15 @@
         <v>29</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -5200,19 +5200,19 @@
         <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -5220,13 +5220,13 @@
     </row>
     <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -5241,21 +5241,21 @@
         <v>29</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -5270,15 +5270,15 @@
         <v>29</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -5296,19 +5296,19 @@
         <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J25">
         <v>8</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -5316,13 +5316,13 @@
     </row>
     <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -5337,21 +5337,21 @@
         <v>29</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -5366,15 +5366,15 @@
         <v>29</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -5392,19 +5392,19 @@
         <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -5412,13 +5412,13 @@
     </row>
     <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -5433,21 +5433,21 @@
         <v>29</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I29" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -5462,10 +5462,10 @@
         <v>29</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5552,7 +5552,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6">
         <v>200</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -5578,7 +5578,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" s="6">
         <v>200</v>
@@ -5592,7 +5592,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -5604,7 +5604,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F4" s="6">
         <v>200</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -5630,7 +5630,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F5" s="6">
         <v>200</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -5656,7 +5656,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F6" s="6">
         <v>200</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5682,7 +5682,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F7" s="6">
         <v>200</v>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -5708,7 +5708,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F8" s="6">
         <v>200</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -5734,7 +5734,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F9" s="6">
         <v>200</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -5760,7 +5760,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F10" s="6">
         <v>200</v>
@@ -5774,7 +5774,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -5786,7 +5786,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F11" s="6">
         <v>200</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -5812,7 +5812,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F12" s="6">
         <v>200</v>
@@ -5878,19 +5878,19 @@
     </row>
     <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F2" s="6">
         <v>200</v>
@@ -5955,27 +5955,27 @@
         <v>22</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>9</v>
@@ -5992,13 +5992,13 @@
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>9</v>
@@ -6015,13 +6015,13 @@
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>9</v>
@@ -6036,21 +6036,21 @@
         <v>29</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>5</v>
@@ -6065,21 +6065,21 @@
         <v>29</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>9</v>
@@ -6094,21 +6094,21 @@
         <v>29</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>9</v>
@@ -6123,21 +6123,21 @@
         <v>29</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>5</v>
@@ -6152,21 +6152,21 @@
         <v>29</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>5</v>
@@ -6181,21 +6181,21 @@
         <v>29</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>5</v>
@@ -6210,21 +6210,21 @@
         <v>29</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>5</v>
@@ -6239,10 +6239,10 @@
         <v>29</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
@@ -6253,13 +6253,13 @@
     </row>
     <row r="12" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>9</v>
@@ -6274,21 +6274,21 @@
         <v>29</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>5</v>
@@ -6303,21 +6303,21 @@
         <v>29</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>5</v>
@@ -6332,21 +6332,21 @@
         <v>29</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>9</v>
@@ -6361,21 +6361,21 @@
         <v>29</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>5</v>
@@ -6390,21 +6390,21 @@
         <v>29</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>9</v>
@@ -6419,21 +6419,21 @@
         <v>29</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>5</v>
@@ -6448,21 +6448,21 @@
         <v>29</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>5</v>
@@ -6477,21 +6477,21 @@
         <v>29</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>5</v>
@@ -6506,21 +6506,21 @@
         <v>29</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>5</v>
@@ -6535,21 +6535,21 @@
         <v>29</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>5</v>
@@ -6564,21 +6564,21 @@
         <v>29</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>5</v>
@@ -6593,21 +6593,21 @@
         <v>29</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>9</v>
@@ -6622,21 +6622,21 @@
         <v>29</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>5</v>
@@ -6651,21 +6651,21 @@
         <v>29</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>9</v>
@@ -6680,21 +6680,21 @@
         <v>29</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>5</v>
@@ -6709,21 +6709,21 @@
         <v>29</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>9</v>
@@ -6738,21 +6738,21 @@
         <v>29</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>5</v>
@@ -6767,21 +6767,21 @@
         <v>29</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>9</v>
@@ -6796,10 +6796,10 @@
         <v>29</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9358C71-6030-4E1D-A425-66E52F6A0387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7153B14-7540-4C79-B3A0-B6C9BC566EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasklist" sheetId="1" r:id="rId1"/>
@@ -369,15 +369,6 @@
   </si>
   <si>
     <t>{
-	"user_id":"15510548580801665",
-	"operation_type":"0",
-	"commit":"申请取消",
-	"result":"这个项目进行不下去"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 	"user_id":"1342",
 	"operation_type":"2",
 	"commit":"同意取消"
@@ -404,15 +395,6 @@
   </si>
   <si>
     <t>已完成任务_执行人发起验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"user_id":"15510548580801665",
-	"operation_type":"1",
-	"commit":"已完成待验收",
-	"result":"所有工作都已经做完"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -772,18 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-	"start_date":"2019-09-10",
-	"end_date":"2019-10-22",
-	"creator":"130751354",
-	"title":"家里事新建项目测试",
-	"type":"2",
-	"userIds":["1342","0139442436685131"],
-	"taskIds":[task_id1,task_id2]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1016,10 +986,6 @@
     <t>被审核人“王维权”通过审核，任务开始执行</t>
   </si>
   <si>
-    <t>login_user=15510548580801665&amp;page_num=1&amp;page_size=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被审核人“王维权”通过审核，待您执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1146,415 +1112,6 @@
   </si>
   <si>
     <t>login_user=130751354&amp;page_num=1&amp;page_size=10&amp;role=1&amp;user_id=1342&amp;status=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试保存任务",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-20",
-	"type":"2",
-	"content":"家里事任务流程_测试保存任务",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":"",
-	"taskUser":[{
-		"node_number":2,
-		"user_id":"1342",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
-		"user_name":"王维权"
-	},
-	{
-		"node_number":1,
-		"user_id":"130751354",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
-		"user_name":"高永康"
-	},
-	{
-		"node_number":3,
-		"user_id":"15510548580801665",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
-		"user_name":"王枫"
-	},
-	{
-		"node_number":4,
-		"user_id":"054155683935495559",
-		"user_name":"赵劲雄",
-  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
-	}
-		]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试审核被驳回",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试审核被驳回",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":"",
-	"taskUser":[{
-		"node_number":2,
-		"user_id":"1342",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
-		"user_name":"王维权"
-	},
-	{
-		"node_number":1,
-		"user_id":"130751354",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
-		"user_name":"高永康"
-	},
-	{
-		"node_number":3,
-		"user_id":"15510548580801665",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
-		"user_name":"王枫"
-	},
-	{
-		"node_number":4,
-		"user_id":"054155683935495559",
-		"user_name":"赵劲雄",
-  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
-	}
-		]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试流程到已取消",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试流程到已取消",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":"",
-	"taskUser":[{
-		"node_number":2,
-		"user_id":"1342",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
-		"user_name":"王维权"
-	},
-	{
-		"node_number":1,
-		"user_id":"130751354",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
-		"user_name":"高永康"
-	},
-	{
-		"node_number":3,
-		"user_id":"15510548580801665",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
-		"user_name":"王枫"
-	},
-	{
-		"node_number":4,
-		"user_id":"054155683935495559",
-		"user_name":"赵劲雄",
-  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
-	}
-		]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试流程到已完成",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试流程到已完成",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":"",
-	"taskUser":[{
-		"node_number":2,
-		"user_id":"1342",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
-		"user_name":"王维权"
-	},
-	{
-		"node_number":1,
-		"user_id":"130751354",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
-		"user_name":"高永康"
-	},
-	{
-		"node_number":3,
-		"user_id":"15510548580801665",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
-		"user_name":"王枫"
-	},
-	{
-		"node_number":4,
-		"user_id":"054155683935495559",
-		"user_name":"赵劲雄",
-  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
-	}
-		]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试项目子任务1",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试项目子任务1",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":"",
-	"taskUser":[{
-		"node_number":2,
-		"user_id":"1342",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
-		"user_name":"王维权"
-	},
-	{
-		"node_number":1,
-		"user_id":"130751354",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
-		"user_name":"高永康"
-	},
-	{
-		"node_number":3,
-		"user_id":"15510548580801665",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
-		"user_name":"王枫"
-	},
-	{
-		"node_number":4,
-		"user_id":"054155683935495559",
-		"user_name":"赵劲雄",
-  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
-	}
-		]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试项目子任务2",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试项目子任务2",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":"",
-	"taskUser":[{
-		"node_number":2,
-		"user_id":"1342",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
-		"user_name":"王维权"
-	},
-	{
-		"node_number":1,
-		"user_id":"130751354",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
-		"user_name":"高永康"
-	},
-	{
-		"node_number":3,
-		"user_id":"15510548580801665",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
-		"user_name":"王枫"
-	},
-	{
-		"node_number":4,
-		"user_id":"054155683935495559",
-		"user_name":"赵劲雄",
-  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
-	}
-		]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试消息通知流程到已取消",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试消息通知流程到已取消",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":"",
-	"taskUser":[{
-		"node_number":2,
-		"user_id":"1342",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
-		"user_name":"王维权"
-	},
-	{
-		"node_number":1,
-		"user_id":"130751354",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
-		"user_name":"高永康"
-	},
-	{
-		"node_number":3,
-		"user_id":"15510548580801665",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
-		"user_name":"王枫"
-	},
-	{
-		"node_number":4,
-		"user_id":"054155683935495559",
-		"user_name":"赵劲雄",
-  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
-	}
-		]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试消息通知流程到已完成",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试消息通知流程到已完成",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":"",
-	"taskUser":[{
-		"node_number":2,
-		"user_id":"1342",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
-		"user_name":"王维权"
-	},
-	{
-		"node_number":1,
-		"user_id":"130751354",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
-		"user_name":"高永康"
-	},
-	{
-		"node_number":3,
-		"user_id":"15510548580801665",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
-		"user_name":"王枫"
-	},
-	{
-		"node_number":4,
-		"user_id":"054155683935495559",
-		"user_name":"赵劲雄",
-  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
-	}
-		]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试流程到执行中1",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试流程到执行中1",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":"",
-	"taskUser":[{
-		"node_number":2,
-		"user_id":"1342",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
-		"user_name":"王维权"
-	},
-	{
-		"node_number":1,
-		"user_id":"130751354",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
-		"user_name":"高永康"
-	},
-	{
-		"node_number":3,
-		"user_id":"15510548580801665",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
-		"user_name":"王枫"
-	},
-	{
-		"node_number":4,
-		"user_id":"054155683935495559",
-		"user_name":"赵劲雄",
-  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
-	}
-		]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试流程到执行中2",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试流程到执行中2",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":"",
-	"taskUser":[{
-		"node_number":2,
-		"user_id":"1342",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
-		"user_name":"王维权"
-	},
-	{
-		"node_number":1,
-		"user_id":"130751354",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
-		"user_name":"高永康"
-	},
-	{
-		"node_number":3,
-		"user_id":"15510548580801665",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
-		"user_name":"王枫"
-	},
-	{
-		"node_number":4,
-		"user_id":"054155683935495559",
-		"user_name":"赵劲雄",
-  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
-	}
-		]
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1750,18 +1307,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>删除验收并审任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里事任务流程_测试验收并审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = '家里事任务流程_测试验收并审';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务已发起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from task where title = "家里事任务流程_测试审核被驳回" UNION select flow_id from task where title = "家里事任务流程_测试审核被驳回";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改后再次发起审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收并审任务_审核人通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收并审任务_执行人发起验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收并审任务_验收人1通过验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收并审任务_验收人2通过验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
-	"title":"家里事任务流程_测试验收并审",
+	"user_id":"0139442436685131",
+	"operation_type":"1",
+	"commit":"所有工作已完成，验收通过"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_流程到审核被驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_流程到已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_流程到已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_项目关联子任务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_项目关联子任务2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_消息通知流程到已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_消息通知流程到已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_我的任务到执行中1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_我的任务到执行中2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务_验收并审任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试保存任务",
 	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
+	"end_date":"2019-12-20",
 	"type":"2",
-	"content":"家里事任务流程_测试验收并审",
-	"audit":"1",
-	"result":"",
-	"result_file":"",
-	"result_photo":"",
-	"target_photo":"",
-	"target_file":"",
+	"content":"家里事任务流程_测试保存任务",
+	"taskAttachments":[],
 	"taskUser":[{
 		"node_number":2,
 		"user_id":"1342",
@@ -1776,9 +1420,333 @@
 	},
 	{
 		"node_number":3,
-		"user_id":"15510548580801665",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
-		"user_name":"王枫"
+		"user_id":"0139442436685131",
+		"avatar": "https://static.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg_60x60q90.jpg",
+		"user_name":"刘荣"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试审核被驳回",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试审核被驳回",
+	"audit":"1",
+	"taskAttachments":[],
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"0139442436685131",
+		"avatar": "https://static.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg_60x60q90.jpg",
+		"user_name":"刘荣"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试流程到已完成",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试流程到已完成",
+	"audit":"1",
+	"taskAttachments":[],
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"0139442436685131",
+		"avatar": "https://static.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg_60x60q90.jpg",
+		"user_name":"刘荣"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试项目子任务1",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试项目子任务1",
+	"audit":"1",
+	"taskAttachments":[],
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"0139442436685131",
+		"avatar": "https://static.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg_60x60q90.jpg",
+		"user_name":"刘荣"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试项目子任务2",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试项目子任务2",
+	"audit":"1",
+	"taskAttachments":[],
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"0139442436685131",
+		"avatar": "https://static.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg_60x60q90.jpg",
+		"user_name":"刘荣"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试消息通知流程到已取消",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试消息通知流程到已取消",
+	"audit":"1",
+	"taskAttachments":[],
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"0139442436685131",
+		"avatar": "https://static.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg_60x60q90.jpg",
+		"user_name":"刘荣"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试消息通知流程到已完成",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试消息通知流程到已完成",
+	"audit":"1",
+	"taskAttachments":[],
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"0139442436685131",
+		"avatar": "https://static.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg_60x60q90.jpg",
+		"user_name":"刘荣"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试流程到执行中1",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试流程到执行中1",
+	"audit":"1",
+	"taskAttachments":[],
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"0139442436685131",
+		"avatar": "https://static.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg_60x60q90.jpg",
+		"user_name":"刘荣"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试流程到执行中2",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试流程到执行中2",
+	"audit":"1",
+	"taskAttachments":[],
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"0139442436685131",
+		"avatar": "https://static.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg_60x60q90.jpg",
+		"user_name":"刘荣"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试验收并审",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试验收并审",
+	"audit":"1",
+	"taskAttachments":[],
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"0139442436685131",
+		"avatar": "https://static.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg_60x60q90.jpg",
+		"user_name":"刘荣"
 	},
 	{
 		"node_number":4,
@@ -1794,27 +1762,51 @@
 	}
 		]
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除验收并审任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里事任务流程_测试验收并审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = '家里事任务流程_测试验收并审';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务已发起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select uuid from task where title = "家里事任务流程_测试审核被驳回" UNION select flow_id from task where title = "家里事任务流程_测试审核被驳回";</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试流程到已取消",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试流程到已取消",
+	"audit":"1",
+	"taskAttachments":[],
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"0139442436685131",
+		"avatar": "https://static.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg_60x60q90.jpg",
+		"user_name":"刘荣"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"user_id":"0139442436685131",
+	"operation_type":"1",
+	"commit":"已完成待验收",
+	"result":"所有工作都已经做完"
+}</t>
   </si>
   <si>
     <t>{
@@ -1843,7 +1835,7 @@
 	},
 	{
 		"node_number":3,
-		"user_id":"15510548580801665",
+		"user_id":"0139442436685131",
 		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9qgpSqfbNCRDNCQw_2316_2320.jpg",
 		"user_name":"王枫"
 	},
@@ -1859,78 +1851,27 @@
 	"nowNun":"1",
 	"status":"5"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改后再次发起审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收并审任务_审核人通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收并审任务_执行人发起验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收并审任务_验收人1通过验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收并审任务_验收人2通过验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
 	"user_id":"0139442436685131",
-	"operation_type":"1",
-	"commit":"所有工作已完成，验收通过"
+	"operation_type":"0",
+	"commit":"申请取消",
+	"result":"这个项目进行不下去"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建任务_流程到审核被驳回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建任务_流程到已取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建任务_流程到已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建任务_项目关联子任务1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建任务_项目关联子任务2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建任务_消息通知流程到已取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建任务_消息通知流程到已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建任务_我的任务到执行中1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建任务_我的任务到执行中2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建任务_验收并审任务</t>
+  </si>
+  <si>
+    <t>login_user=0139442436685131&amp;page_num=1&amp;page_size=10</t>
+  </si>
+  <si>
+    <t>{
+	"start_date":"2019-09-10",
+	"end_date":"2019-10-22",
+	"creator":"130751354",
+	"title":"家里事新建项目测试",
+	"userIds":["1342","0139442436685131"],
+	"taskIds":[task_id1,task_id2]
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2369,7 +2310,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2415,13 +2356,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2444,13 +2385,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2473,13 +2414,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -2502,13 +2443,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -2531,13 +2472,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -2560,13 +2501,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -2589,13 +2530,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -2618,13 +2559,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -2647,13 +2588,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -2676,13 +2617,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -2721,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A6138-0A61-47C1-A7E8-238944BB7D5F}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2770,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -2785,18 +2726,18 @@
         <v>29</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2811,18 +2752,18 @@
         <v>29</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -2837,18 +2778,18 @@
         <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -2863,18 +2804,18 @@
         <v>29</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -2889,18 +2830,18 @@
         <v>29</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2915,18 +2856,18 @@
         <v>29</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -2941,18 +2882,18 @@
         <v>29</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -2967,18 +2908,18 @@
         <v>29</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -2993,18 +2934,18 @@
         <v>29</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -3019,18 +2960,18 @@
         <v>29</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -3045,7 +2986,7 @@
         <v>29</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3108,19 +3049,19 @@
         <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -3146,22 +3087,22 @@
         <v>29</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -3175,15 +3116,15 @@
         <v>29</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -3202,19 +3143,19 @@
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4">
         <v>9</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -3222,13 +3163,13 @@
     </row>
     <row r="5" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -3243,15 +3184,15 @@
         <v>29</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -3272,21 +3213,21 @@
         <v>29</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -3301,21 +3242,21 @@
         <v>29</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -3330,15 +3271,15 @@
         <v>29</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -3357,19 +3298,19 @@
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="J9">
         <v>4</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -3377,13 +3318,13 @@
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -3398,15 +3339,15 @@
         <v>29</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -3425,19 +3366,19 @@
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -3445,7 +3386,7 @@
     </row>
     <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -3464,19 +3405,19 @@
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3484,13 +3425,13 @@
     </row>
     <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -3506,7 +3447,7 @@
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="12"/>
@@ -3514,7 +3455,7 @@
     </row>
     <row r="14" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -3533,19 +3474,19 @@
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3574,21 +3515,21 @@
         <v>29</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -3603,15 +3544,15 @@
         <v>29</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -3630,19 +3571,19 @@
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J17">
         <v>3</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -3656,7 +3597,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -3671,21 +3612,21 @@
         <v>29</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -3700,15 +3641,15 @@
         <v>29</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -3727,19 +3668,19 @@
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J20">
         <v>8</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -3747,13 +3688,13 @@
     </row>
     <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -3768,15 +3709,15 @@
         <v>29</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -3797,21 +3738,21 @@
         <v>29</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -3826,15 +3767,15 @@
         <v>29</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -3853,19 +3794,19 @@
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J24">
         <v>3</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -3873,13 +3814,13 @@
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -3894,21 +3835,21 @@
         <v>29</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -3923,15 +3864,15 @@
         <v>29</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -3950,19 +3891,19 @@
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J27">
         <v>8</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N27">
         <v>3</v>
@@ -3970,13 +3911,13 @@
     </row>
     <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -3991,21 +3932,21 @@
         <v>29</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -4020,15 +3961,15 @@
         <v>29</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -4047,19 +3988,19 @@
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J30">
         <v>5</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -4067,13 +4008,13 @@
     </row>
     <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -4088,15 +4029,15 @@
         <v>29</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -4115,19 +4056,19 @@
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J32">
         <v>4</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N32">
         <v>3</v>
@@ -4135,13 +4076,13 @@
     </row>
     <row r="33" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -4156,21 +4097,21 @@
         <v>29</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -4185,15 +4126,15 @@
         <v>29</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
@@ -4212,19 +4153,19 @@
       </c>
       <c r="H35"/>
       <c r="I35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J35">
         <v>5</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -4232,13 +4173,13 @@
     </row>
     <row r="36" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -4253,21 +4194,21 @@
         <v>29</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -4282,15 +4223,15 @@
         <v>29</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
@@ -4309,19 +4250,19 @@
       </c>
       <c r="H38"/>
       <c r="I38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J38">
         <v>6</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N38">
         <v>4</v>
@@ -4329,7 +4270,7 @@
     </row>
     <row r="39" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -4350,15 +4291,15 @@
         <v>29</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -4379,10 +4320,10 @@
         <v>29</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4397,8 +4338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B091D127-9834-4C0F-B8FD-968C2FAB0C28}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4439,30 +4380,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6">
+        <v>200</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>115</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6">
-        <v>200</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>117</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="4"/>
@@ -4522,28 +4463,28 @@
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>30</v>
@@ -4551,10 +4492,10 @@
     </row>
     <row r="2" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -4569,15 +4510,15 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -4595,24 +4536,24 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -4627,15 +4568,15 @@
         <v>29</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -4653,19 +4594,19 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -4673,13 +4614,13 @@
     </row>
     <row r="6" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -4694,21 +4635,21 @@
         <v>29</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -4723,15 +4664,15 @@
         <v>29</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -4749,19 +4690,19 @@
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -4769,13 +4710,13 @@
     </row>
     <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -4790,21 +4731,21 @@
         <v>29</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -4819,15 +4760,15 @@
         <v>29</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -4845,19 +4786,19 @@
         <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -4865,7 +4806,7 @@
     </row>
     <row r="12" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -4883,18 +4824,18 @@
         <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -4915,21 +4856,21 @@
         <v>29</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -4944,15 +4885,15 @@
         <v>29</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -4970,19 +4911,19 @@
         <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -4990,13 +4931,13 @@
     </row>
     <row r="16" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -5011,21 +4952,21 @@
         <v>29</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -5040,15 +4981,15 @@
         <v>29</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -5066,19 +5007,19 @@
         <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J18">
         <v>8</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -5086,13 +5027,13 @@
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -5107,15 +5048,15 @@
         <v>29</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -5133,19 +5074,19 @@
         <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J20">
         <v>9</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -5153,7 +5094,7 @@
     </row>
     <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -5174,15 +5115,15 @@
         <v>29</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -5200,19 +5141,19 @@
         <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -5220,13 +5161,13 @@
     </row>
     <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -5241,21 +5182,21 @@
         <v>29</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -5270,15 +5211,15 @@
         <v>29</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -5296,19 +5237,19 @@
         <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J25">
         <v>8</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -5316,13 +5257,13 @@
     </row>
     <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -5337,21 +5278,21 @@
         <v>29</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -5366,15 +5307,15 @@
         <v>29</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -5392,19 +5333,19 @@
         <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -5412,13 +5353,13 @@
     </row>
     <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -5433,21 +5374,21 @@
         <v>29</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -5462,10 +5403,10 @@
         <v>29</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5552,7 +5493,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="6">
         <v>200</v>
@@ -5578,7 +5519,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="6">
         <v>200</v>
@@ -5604,7 +5545,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="6">
         <v>200</v>
@@ -5630,7 +5571,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F5" s="6">
         <v>200</v>
@@ -5644,7 +5585,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -5656,7 +5597,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="6">
         <v>200</v>
@@ -5670,7 +5611,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -5682,7 +5623,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F7" s="6">
         <v>200</v>
@@ -5696,7 +5637,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -5708,7 +5649,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F8" s="6">
         <v>200</v>
@@ -5722,7 +5663,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -5734,7 +5675,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F9" s="6">
         <v>200</v>
@@ -5748,7 +5689,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -5760,7 +5701,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F10" s="6">
         <v>200</v>
@@ -5774,7 +5715,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -5786,7 +5727,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F11" s="6">
         <v>200</v>
@@ -5800,7 +5741,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -5812,7 +5753,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F12" s="6">
         <v>200</v>
@@ -5878,19 +5819,19 @@
     </row>
     <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>120</v>
       </c>
       <c r="F2" s="6">
         <v>200</v>
@@ -5961,21 +5902,21 @@
         <v>19</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>9</v>
@@ -5992,13 +5933,13 @@
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>9</v>
@@ -6015,7 +5956,7 @@
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>34</v>
@@ -6036,21 +5977,21 @@
         <v>29</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>5</v>
@@ -6065,21 +6006,21 @@
         <v>29</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>9</v>
@@ -6094,21 +6035,21 @@
         <v>29</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>9</v>
@@ -6123,21 +6064,21 @@
         <v>29</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>5</v>
@@ -6152,21 +6093,21 @@
         <v>29</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>5</v>
@@ -6181,21 +6122,21 @@
         <v>29</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>5</v>
@@ -6210,21 +6151,21 @@
         <v>29</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>5</v>
@@ -6239,10 +6180,10 @@
         <v>29</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
@@ -6253,7 +6194,7 @@
     </row>
     <row r="12" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>34</v>
@@ -6274,21 +6215,21 @@
         <v>29</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>5</v>
@@ -6303,21 +6244,21 @@
         <v>29</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>5</v>
@@ -6332,21 +6273,21 @@
         <v>29</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>9</v>
@@ -6361,21 +6302,21 @@
         <v>29</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>5</v>
@@ -6390,21 +6331,21 @@
         <v>29</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>9</v>
@@ -6419,21 +6360,21 @@
         <v>29</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>5</v>
@@ -6448,21 +6389,21 @@
         <v>29</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>5</v>
@@ -6477,21 +6418,21 @@
         <v>29</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>5</v>
@@ -6506,21 +6447,21 @@
         <v>29</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>5</v>
@@ -6535,21 +6476,21 @@
         <v>29</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>5</v>
@@ -6564,21 +6505,21 @@
         <v>29</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>5</v>
@@ -6593,21 +6534,21 @@
         <v>29</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>9</v>
@@ -6622,21 +6563,21 @@
         <v>29</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>5</v>
@@ -6651,21 +6592,21 @@
         <v>29</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>9</v>
@@ -6680,21 +6621,21 @@
         <v>29</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>5</v>
@@ -6709,21 +6650,21 @@
         <v>29</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>9</v>
@@ -6738,21 +6679,21 @@
         <v>29</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>5</v>
@@ -6767,21 +6708,21 @@
         <v>29</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>9</v>
@@ -6796,10 +6737,10 @@
         <v>29</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/testFile/case/case.xlsx
+++ b/testFile/case/case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\jbs_jls\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7153B14-7540-4C79-B3A0-B6C9BC566EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F314909-11A7-471B-9D8D-119E8356927C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasklist" sheetId="1" r:id="rId1"/>
@@ -1615,83 +1615,11 @@
   </si>
   <si>
     <t>{
-	"title":"家里事任务流程_测试消息通知流程到已完成",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试消息通知流程到已完成",
-	"audit":"1",
-	"taskAttachments":[],
-	"taskUser":[{
-		"node_number":2,
-		"user_id":"1342",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
-		"user_name":"王维权"
-	},
-	{
-		"node_number":1,
-		"user_id":"130751354",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
-		"user_name":"高永康"
-	},
-	{
-		"node_number":3,
-		"user_id":"0139442436685131",
-		"avatar": "https://static.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg_60x60q90.jpg",
-		"user_name":"刘荣"
-	},
-	{
-		"node_number":4,
-		"user_id":"054155683935495559",
-		"user_name":"赵劲雄",
-  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
-	}
-		]
-}</t>
-  </si>
-  <si>
-    <t>{
 	"title":"家里事任务流程_测试流程到执行中1",
 	"start_date":"2019-09-10",
 	"end_date":"2019-12-24",
 	"type":"2",
 	"content":"家里事任务流程_测试流程到执行中1",
-	"audit":"1",
-	"taskAttachments":[],
-	"taskUser":[{
-		"node_number":2,
-		"user_id":"1342",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
-		"user_name":"王维权"
-	},
-	{
-		"node_number":1,
-		"user_id":"130751354",
-		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
-		"user_name":"高永康"
-	},
-	{
-		"node_number":3,
-		"user_id":"0139442436685131",
-		"avatar": "https://static.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg_60x60q90.jpg",
-		"user_name":"刘荣"
-	},
-	{
-		"node_number":4,
-		"user_id":"054155683935495559",
-		"user_name":"赵劲雄",
-  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
-	}
-		]
-}</t>
-  </si>
-  <si>
-    <t>{
-	"title":"家里事任务流程_测试流程到执行中2",
-	"start_date":"2019-09-10",
-	"end_date":"2019-12-24",
-	"type":"2",
-	"content":"家里事任务流程_测试流程到执行中2",
 	"audit":"1",
 	"taskAttachments":[],
 	"taskUser":[{
@@ -1871,6 +1799,80 @@
 	"title":"家里事新建项目测试",
 	"userIds":["1342","0139442436685131"],
 	"taskIds":[task_id1,task_id2]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试消息通知流程到已完成",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试消息通知流程到已完成",
+	"audit":"1",
+	"taskAttachments":[],
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"0139442436685131",
+		"avatar": "https://static.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg_60x60q90.jpg",
+		"user_name":"刘荣"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"家里事任务流程_测试流程到执行中2",
+	"start_date":"2019-09-10",
+	"end_date":"2019-12-24",
+	"type":"2",
+	"content":"家里事任务流程_测试流程到执行中2",
+	"audit":"1",
+	"taskAttachments":[],
+	"taskUser":[{
+		"node_number":2,
+		"user_id":"1342",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPBbCc1UmN-f3NAnDNAnA_624_624.jpg",
+		"user_name":"王维权"
+	},
+	{
+		"node_number":1,
+		"user_id":"130751354",
+		"avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9rA_3j9PNAvDNAu4_750_752.jpg",
+		"user_name":"高永康"
+	},
+	{
+		"node_number":3,
+		"user_id":"0139442436685131",
+		"avatar": "https://static.dingtalk.com/media/lADPDgQ9qsX5QgfNA8LNAtA_720_962.jpg_60x60q90.jpg",
+		"user_name":"刘荣"
+	},
+	{
+		"node_number":4,
+		"user_id":"054155683935495559",
+		"user_name":"赵劲雄",
+  "avatar": "https://static-legacy.dingtalk.com/media/lADPDgQ9q4N773bNApnNAfs_507_665.jpg"
+	}
+		]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1950,12 +1952,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1970,7 +1978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2026,6 +2034,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2662,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A6138-0A61-47C1-A7E8-238944BB7D5F}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2678,28 +2690,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2763,7 +2775,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -2893,7 +2905,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -2919,7 +2931,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -2945,7 +2957,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -2971,7 +2983,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -3000,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7693FB1-C9BA-4480-888D-56CE715BB47D}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3064,7 +3076,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -3093,7 +3105,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -3143,33 +3155,33 @@
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>96</v>
+      <c r="L4" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>217</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -3183,25 +3195,23 @@
       <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="H5"/>
       <c r="I5" t="s">
-        <v>64</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6">
         <v>200</v>
@@ -3212,22 +3222,35 @@
       <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="H6"/>
       <c r="I6" t="s">
-        <v>220</v>
+        <v>62</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -3241,22 +3264,22 @@
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>52</v>
+      <c r="H7" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -3270,11 +3293,11 @@
       <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>54</v>
+      <c r="H8" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3298,33 +3321,33 @@
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>227</v>
+      <c r="L9" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>217</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -3339,21 +3362,24 @@
         <v>29</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E11" s="6">
         <v>200</v>
@@ -3364,24 +3390,11 @@
       <c r="G11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H11"/>
+      <c r="H11" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="I11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N11">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3405,33 +3418,33 @@
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>72</v>
+      <c r="L12" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>217</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -3445,13 +3458,12 @@
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13"/>
+      <c r="H13" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="I13" t="s">
-        <v>222</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="10"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3474,27 +3486,27 @@
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>221</v>
+      <c r="L14" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>217</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -3518,18 +3530,18 @@
         <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -3544,10 +3556,10 @@
         <v>29</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3571,7 +3583,7 @@
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -3579,8 +3591,8 @@
       <c r="K17" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>75</v>
+      <c r="L17" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>217</v>
@@ -3591,13 +3603,13 @@
     </row>
     <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -3615,18 +3627,18 @@
         <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -3641,10 +3653,10 @@
         <v>29</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3668,7 +3680,7 @@
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J20">
         <v>8</v>
@@ -3677,7 +3689,7 @@
         <v>216</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>217</v>
@@ -3688,13 +3700,13 @@
     </row>
     <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -3708,22 +3720,22 @@
       <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>57</v>
+      <c r="H21" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -3737,8 +3749,8 @@
       <c r="G22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>56</v>
+      <c r="H22" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="I22" t="s">
         <v>64</v>
@@ -3746,16 +3758,13 @@
     </row>
     <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E23" s="6">
         <v>200</v>
@@ -3766,22 +3775,38 @@
       <c r="G23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H23"/>
       <c r="I23" t="s">
         <v>64</v>
       </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E24" s="6">
         <v>200</v>
@@ -3792,35 +3817,22 @@
       <c r="G24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H24"/>
+      <c r="H24" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="I24" t="s">
         <v>64</v>
       </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N24">
-        <v>2</v>
-      </c>
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -3834,8 +3846,8 @@
       <c r="G25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>50</v>
+      <c r="H25" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="I25" t="s">
         <v>64</v>
@@ -3843,16 +3855,13 @@
     </row>
     <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E26" s="6">
         <v>200</v>
@@ -3863,22 +3872,38 @@
       <c r="G26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="H26"/>
       <c r="I26" t="s">
         <v>64</v>
       </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E27" s="6">
         <v>200</v>
@@ -3889,35 +3914,22 @@
       <c r="G27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H27"/>
+      <c r="H27" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="I27" t="s">
         <v>64</v>
       </c>
-      <c r="J27">
-        <v>8</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N27">
-        <v>3</v>
-      </c>
     </row>
     <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -3931,8 +3943,8 @@
       <c r="G28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>51</v>
+      <c r="H28" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="I28" t="s">
         <v>64</v>
@@ -3940,16 +3952,13 @@
     </row>
     <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E29" s="6">
         <v>200</v>
@@ -3960,22 +3969,38 @@
       <c r="G29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="H29"/>
       <c r="I29" t="s">
         <v>64</v>
       </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E30" s="6">
         <v>200</v>
@@ -3986,35 +4011,22 @@
       <c r="G30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H30"/>
+      <c r="H30" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="I30" t="s">
         <v>64</v>
       </c>
-      <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
     </row>
     <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>251</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -4029,7 +4041,7 @@
         <v>29</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I31" t="s">
         <v>64</v>
@@ -4059,30 +4071,30 @@
         <v>64</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="L32" s="9" t="s">
-        <v>90</v>
+      <c r="L32" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>217</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -4096,22 +4108,22 @@
       <c r="G33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>53</v>
+      <c r="H33" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="I33" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -4125,22 +4137,25 @@
       <c r="G34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>93</v>
+      <c r="H34" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E35" s="6">
         <v>200</v>
@@ -4151,35 +4166,22 @@
       <c r="G35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H35"/>
+      <c r="H35" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="I35" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35">
-        <v>5</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N35">
-        <v>3</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -4197,12 +4199,12 @@
         <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -4226,7 +4228,7 @@
         <v>54</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4250,16 +4252,16 @@
       </c>
       <c r="H38"/>
       <c r="I38" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="J38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="L38" s="11" t="s">
-        <v>97</v>
+      <c r="L38" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>217</v>
@@ -4270,13 +4272,13 @@
     </row>
     <row r="39" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -4290,25 +4292,22 @@
       <c r="G39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>56</v>
+      <c r="H39" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="I39" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E40" s="6">
         <v>200</v>
@@ -4319,11 +4318,24 @@
       <c r="G40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="H40"/>
       <c r="I40" t="s">
-        <v>192</v>
+        <v>220</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4338,7 +4350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B091D127-9834-4C0F-B8FD-968C2FAB0C28}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -4388,7 +4400,7 @@
         <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -4421,7 +4433,7 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4547,16 +4559,13 @@
     </row>
     <row r="4" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6">
         <v>200</v>
@@ -4567,22 +4576,28 @@
       <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>124</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6">
         <v>200</v>
@@ -4593,34 +4608,22 @@
       <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="H5" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="I5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -4634,25 +4637,22 @@
       <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>53</v>
+      <c r="H6" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6">
         <v>200</v>
@@ -4663,22 +4663,37 @@
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6">
         <v>200</v>
@@ -4689,34 +4704,22 @@
       <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="H8" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="I8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -4730,25 +4733,22 @@
       <c r="G9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>52</v>
+      <c r="H9" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6">
         <v>200</v>
@@ -4759,22 +4759,37 @@
       <c r="G10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E11" s="6">
         <v>200</v>
@@ -4785,28 +4800,16 @@
       <c r="G11" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="H11" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="I11" t="s">
-        <v>132</v>
-      </c>
-      <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N11">
-        <v>4</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -4824,18 +4827,27 @@
         <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
-        <v>109</v>
+        <v>131</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -4859,18 +4871,18 @@
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -4885,10 +4897,10 @@
         <v>29</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4911,7 +4923,7 @@
         <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -4919,8 +4931,8 @@
       <c r="K15" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>75</v>
+      <c r="L15" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>217</v>
@@ -4931,13 +4943,13 @@
     </row>
     <row r="16" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -4955,18 +4967,18 @@
         <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -4981,10 +4993,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5007,7 +5019,7 @@
         <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J18">
         <v>8</v>
@@ -5016,7 +5028,7 @@
         <v>216</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>217</v>
@@ -5027,13 +5039,13 @@
     </row>
     <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -5047,22 +5059,25 @@
       <c r="G19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>57</v>
+      <c r="H19" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E20" s="6">
         <v>200</v>
@@ -5073,37 +5088,22 @@
       <c r="G20" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="H20" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="I20" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20">
-        <v>9</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N20">
-        <v>2</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E21" s="6">
         <v>200</v>
@@ -5114,22 +5114,37 @@
       <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="I21" t="s">
-        <v>112</v>
+        <v>132</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E22" s="6">
         <v>200</v>
@@ -5139,35 +5154,23 @@
       </c>
       <c r="G22" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="I22" t="s">
         <v>132</v>
       </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
     </row>
     <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -5181,8 +5184,8 @@
       <c r="G23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>50</v>
+      <c r="H23" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="I23" t="s">
         <v>132</v>
@@ -5190,16 +5193,13 @@
     </row>
     <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E24" s="6">
         <v>200</v>
@@ -5209,23 +5209,38 @@
       </c>
       <c r="G24" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="I24" t="s">
         <v>132</v>
       </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E25" s="6">
         <v>200</v>
@@ -5235,35 +5250,23 @@
       </c>
       <c r="G25" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="I25" t="s">
         <v>132</v>
       </c>
-      <c r="J25">
-        <v>8</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N25">
-        <v>3</v>
-      </c>
     </row>
     <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -5277,8 +5280,8 @@
       <c r="G26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>51</v>
+      <c r="H26" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="I26" t="s">
         <v>132</v>
@@ -5286,16 +5289,13 @@
     </row>
     <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E27" s="6">
         <v>200</v>
@@ -5305,23 +5305,38 @@
       </c>
       <c r="G27" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="I27" t="s">
         <v>132</v>
       </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E28" s="6">
         <v>200</v>
@@ -5331,35 +5346,23 @@
       </c>
       <c r="G28" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="I28" t="s">
         <v>132</v>
       </c>
-      <c r="J28">
-        <v>5</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N28">
-        <v>3</v>
-      </c>
     </row>
     <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>251</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -5374,7 +5377,7 @@
         <v>29</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I29" t="s">
         <v>132</v>
@@ -5382,16 +5385,13 @@
     </row>
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E30" s="6">
         <v>200</v>
@@ -5401,12 +5401,24 @@
       </c>
       <c r="G30" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="I30" t="s">
         <v>132</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5852,10 +5864,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEA9D88-B6E7-458C-A379-E2D27B1DAAD6}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5873,7 +5885,7 @@
     <col min="12" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5908,7 +5920,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>195</v>
       </c>
@@ -5931,7 +5943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>196</v>
       </c>
@@ -5954,9 +5966,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>34</v>
@@ -5980,18 +5992,18 @@
         <v>56</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>154</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>5</v>
@@ -6006,50 +6018,50 @@
         <v>29</v>
       </c>
       <c r="J5" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="16">
+        <v>200</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="16">
-        <v>200</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>49</v>
+        <v>251</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>9</v>
@@ -6064,21 +6076,21 @@
         <v>29</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>154</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>5</v>
@@ -6093,24 +6105,24 @@
         <v>29</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>180</v>
+        <v>34</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E9" s="16">
         <v>200</v>
@@ -6121,22 +6133,22 @@
       <c r="G9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>5</v>
@@ -6151,21 +6163,21 @@
         <v>29</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>154</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>5</v>
@@ -6180,30 +6192,24 @@
         <v>29</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>38</v>
+        <v>154</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E12" s="16">
         <v>200</v>
@@ -6214,22 +6220,22 @@
       <c r="G12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>154</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>5</v>
@@ -6244,79 +6250,79 @@
         <v>29</v>
       </c>
       <c r="J13" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="16">
+        <v>200</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="16">
+        <v>200</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K15" s="18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+    <row r="16" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>198</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="16">
-        <v>200</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="16">
-        <v>200</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>199</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>154</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>5</v>
@@ -6331,21 +6337,21 @@
         <v>29</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>9</v>
@@ -6360,21 +6366,21 @@
         <v>29</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>154</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>5</v>
@@ -6389,24 +6395,24 @@
         <v>29</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>180</v>
+        <v>34</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E19" s="16">
         <v>200</v>
@@ -6417,14 +6423,14 @@
       <c r="G19" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>198</v>
       </c>
@@ -6432,7 +6438,7 @@
         <v>154</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>5</v>
@@ -6447,24 +6453,24 @@
         <v>29</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>182</v>
+        <v>34</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E21" s="16">
         <v>200</v>
@@ -6475,22 +6481,22 @@
       <c r="G21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>154</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>5</v>
@@ -6505,108 +6511,108 @@
         <v>29</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="16">
+        <v>200</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B24" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="C24" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="16">
-        <v>200</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="14" t="s">
+      <c r="E24" s="16">
+        <v>200</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="14" t="s">
+      <c r="K24" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="16">
-        <v>200</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="14" t="s">
+      <c r="C25" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="16">
+        <v>200</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="16">
-        <v>200</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>9</v>
@@ -6621,21 +6627,21 @@
         <v>29</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>154</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>5</v>
@@ -6650,24 +6656,24 @@
         <v>29</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>251</v>
+        <v>154</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E28" s="16">
         <v>200</v>
@@ -6678,22 +6684,22 @@
       <c r="G28" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>154</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>5</v>
@@ -6708,24 +6714,24 @@
         <v>29</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>47</v>
+        <v>154</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E30" s="16">
         <v>200</v>
@@ -6736,12 +6742,17 @@
       <c r="G30" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>166</v>
-      </c>
+      <c r="J30" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
